--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_5_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_5_33.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1945894.498832014</v>
+        <v>1952505.370501301</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1670600.253730632</v>
+        <v>1670600.25373063</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5788610.28964593</v>
+        <v>5788610.289645932</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -665,13 +665,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="F2" t="n">
-        <v>22.56635248423083</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="G2" t="n">
-        <v>25.62029119463083</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -707,16 +707,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>7.263614969095787</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -738,13 +738,13 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>25.62029119463083</v>
+        <v>21.81976115797297</v>
       </c>
       <c r="D3" t="n">
         <v>25.62029119463083</v>
       </c>
       <c r="E3" t="n">
-        <v>22.56635248423083</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -753,13 +753,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -820,22 +820,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>23.19571111787229</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -856,10 +856,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>0.2968606583479769</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>10.94391759456929</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
         <v>25.62029119463083</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>15.30273751513505</v>
       </c>
       <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
         <v>25.62029119463083</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -941,7 +941,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>4.067871852857845</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -996,7 +996,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1029,16 +1029,16 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>22.56635248423084</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>21.81976115797298</v>
       </c>
       <c r="Y6" t="n">
         <v>25.62029119463083</v>
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>22.56635248423083</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1108,16 +1108,16 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>25.62029119463083</v>
       </c>
       <c r="W7" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,19 +1130,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.772547683598775</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="G8" t="n">
         <v>15.30273751513505</v>
@@ -1151,10 +1151,10 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>8.998556734151398</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1175,22 +1175,22 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
         <v>27.59002526031614</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1209,20 +1209,20 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>27.59002526031614</v>
       </c>
       <c r="D9" t="n">
+        <v>27.59002526031614</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
         <v>23.55470292302859</v>
       </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1309,13 +1309,13 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1339,7 +1339,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>22.44875936050941</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1348,16 +1348,16 @@
         <v>27.59002526031614</v>
       </c>
       <c r="V10" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>0.1792675346265591</v>
       </c>
     </row>
     <row r="11">
@@ -1373,67 +1373,67 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="V11" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>209.0200695862453</v>
-      </c>
-      <c r="T11" t="n">
-        <v>223.0958495641314</v>
-      </c>
-      <c r="U11" t="n">
+      <c r="W11" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="V11" t="n">
-        <v>21.18375537072436</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0</v>
-      </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1452,7 +1452,7 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>51.87748497259537</v>
+        <v>66.95039176927961</v>
       </c>
       <c r="E12" t="n">
         <v>157.6450804554009</v>
@@ -1503,13 +1503,13 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1546,13 +1546,13 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>39.82778746869526</v>
+        <v>17.55829564281241</v>
       </c>
       <c r="J13" t="n">
         <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1616,16 +1616,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>1.809496073036188</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1649,25 +1649,25 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>11.19305615617957</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V14" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1783,13 +1783,13 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>17.55829564281241</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1804,13 +1804,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1853,19 +1853,19 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>220.8837963815379</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1889,19 +1889,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>102.3382270926889</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1923,25 +1923,25 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>145.4467082856156</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>3.833957768458675</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -1968,19 +1968,19 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -2050,10 +2050,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2078,13 +2078,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C20" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -2135,19 +2135,19 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y20" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V20" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0</v>
-      </c>
-      <c r="X20" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2169,19 +2169,19 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>97.82367936158336</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2205,10 +2205,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>5.2949394844275</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -2220,10 +2220,10 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2242,52 +2242,52 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" t="n">
-        <v>0</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2315,28 +2315,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>35.6247965172785</v>
+        <v>241.188628786375</v>
       </c>
       <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
         <v>241.188628786375</v>
       </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>209.7292982441481</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>208.2734782599875</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>212.4389442350391</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2394,7 +2394,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>165.7865923236095</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -2409,10 +2409,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>136.5969258369528</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>111.4888529102386</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>88.65004152515722</v>
@@ -2442,28 +2442,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>71.64782441801624</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>199.4181373685637</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.194790754717</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.0539958231674</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>33.7893759934156</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>204.9361044510465</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2515,13 +2515,13 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>1.974849408848655</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>134.1390548119807</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2530,7 +2530,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>136.1139042208294</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2552,13 +2552,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>241.188628786375</v>
       </c>
       <c r="C26" t="n">
-        <v>203.1948363467521</v>
+        <v>241.188628786375</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>241.188628786375</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -2597,7 +2597,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.244107888286948</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -2615,13 +2615,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>241.188628786375</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>241.188628786375</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>241.188628786375</v>
+        <v>212.438944235039</v>
       </c>
     </row>
     <row r="27">
@@ -2631,19 +2631,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>165.7865923236095</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>171.9619076620579</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>7.808976303949056</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>144.322621067126</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -2652,7 +2652,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>88.65004152515722</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,28 +2679,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>99.41124282638528</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>170.93657977758</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>199.4181373685637</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.194790754717</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>152.3940383417607</v>
       </c>
       <c r="W27" t="n">
-        <v>241.188628786375</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>204.9361044510465</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2713,55 +2713,55 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
         <v>136.1139042208293</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
-        <v>0</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>0</v>
-      </c>
-      <c r="R28" t="n">
-        <v>0</v>
-      </c>
-      <c r="S28" t="n">
-        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>286.8767935431692</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -2801,16 +2801,16 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>286.8767935431692</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>280.4878877963251</v>
       </c>
       <c r="I29" t="n">
-        <v>88.57214450813416</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2846,16 +2846,16 @@
         <v>164.1089352446894</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>192.3587385883945</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>268.765344150693</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>207.5905546022295</v>
       </c>
       <c r="X29" t="n">
-        <v>286.8767935431692</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2868,28 +2868,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>107.5462693304254</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>113.7215846688738</v>
       </c>
       <c r="D30" t="n">
         <v>88.45815124519677</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>89.69162977585194</v>
       </c>
       <c r="F30" t="n">
-        <v>86.0822980739419</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>78.35660284376866</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>53.24852991705448</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>30.4097185319731</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2919,10 +2919,10 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>112.6962567843958</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>141.1778143753796</v>
       </c>
       <c r="U30" t="n">
         <v>166.9544677615328</v>
@@ -2934,10 +2934,10 @@
         <v>192.7080688414776</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>146.7860708840355</v>
       </c>
       <c r="Y30" t="n">
-        <v>23.03742422258118</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2947,16 +2947,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>120.8450658624953</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>89.62855869877038</v>
       </c>
       <c r="E31" t="n">
-        <v>87.44704832712719</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2968,10 +2968,10 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.46356060781631</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>34.3722657972308</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>165.0296837175303</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3007,16 +3007,16 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>193.150729004386</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>54.12895973524428</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>70.07773410790524</v>
       </c>
     </row>
     <row r="32">
@@ -3026,25 +3026,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>286.8767935431691</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>286.8767935431692</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>286.8767935431692</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>286.8767935431692</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>252.6810797528234</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>11.76572086431229</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3074,10 +3074,10 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>90.8822036217077</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>150.0331552668034</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3089,10 +3089,10 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>286.8767935431691</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>286.8767935431691</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3114,13 +3114,13 @@
         <v>88.45815124519677</v>
       </c>
       <c r="E33" t="n">
-        <v>98.65816613595896</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>86.0822980739419</v>
       </c>
       <c r="G33" t="n">
-        <v>42.14420521499927</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>53.24852991705448</v>
@@ -3159,7 +3159,7 @@
         <v>112.6962567843958</v>
       </c>
       <c r="T33" t="n">
-        <v>141.1778143753796</v>
+        <v>89.27211688486044</v>
       </c>
       <c r="U33" t="n">
         <v>166.9544677615328</v>
@@ -3168,7 +3168,7 @@
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>192.7080688414776</v>
       </c>
       <c r="X33" t="n">
         <v>146.7860708840355</v>
@@ -3190,7 +3190,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>89.62855869877038</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3205,10 +3205,10 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>96.46356060781631</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>34.3722657972308</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -3229,28 +3229,28 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>27.17512893225241</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>165.0296837175303</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>164.8482373636565</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>166.9034296716541</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>166.7227410695952</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3263,22 +3263,22 @@
         </is>
       </c>
       <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C35" t="n">
+      <c r="G35" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="D35" t="n">
-        <v>121.4031820217344</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3314,13 +3314,13 @@
         <v>90.8822036217077</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>150.0331552668034</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>192.3587385883945</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3329,10 +3329,10 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>20.02557704419561</v>
       </c>
       <c r="Y35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3345,10 +3345,10 @@
         <v>107.5462693304254</v>
       </c>
       <c r="C36" t="n">
-        <v>113.7215846688738</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>88.45815124519677</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>98.65816613595896</v>
@@ -3357,13 +3357,13 @@
         <v>86.0822980739419</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>78.35660284376866</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>53.24852991705448</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>30.4097185319731</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,28 +3390,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>41.17091983320115</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>111.8172671555792</v>
+        <v>112.6962567843958</v>
       </c>
       <c r="T36" t="n">
         <v>141.1778143753796</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>34.44452744204356</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>192.7080688414776</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>146.6957814578624</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3421,19 +3421,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>120.8450658624953</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>108.2599067791859</v>
       </c>
       <c r="D37" t="n">
-        <v>89.62855869877038</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>86.43413370348927</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3442,7 +3442,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.46356060781631</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>27.17512893225241</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -3475,13 +3475,13 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>145.6173862938442</v>
+        <v>43.56913597626615</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>193.150729004386</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3500,16 +3500,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -3548,19 +3548,19 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>91.62879494796556</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>150.7797465930612</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>164.8555265709472</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>193.1053299146524</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3569,7 +3569,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>93.94456537213371</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3579,10 +3579,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>108.2928606566832</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>114.4681759951316</v>
       </c>
       <c r="D39" t="n">
         <v>89.20474257145463</v>
@@ -3591,7 +3591,7 @@
         <v>99.40475746221682</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>86.82888940019976</v>
       </c>
       <c r="G39" t="n">
         <v>79.10319417002651</v>
@@ -3627,13 +3627,13 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>41.91751115945901</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>113.4428481106537</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>27.96457996225156</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -3642,13 +3642,13 @@
         <v>174.5602641562411</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>90.230445067543</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>147.5326622102934</v>
       </c>
       <c r="Y39" t="n">
-        <v>147.4423727841202</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3661,10 +3661,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>109.0064981054437</v>
       </c>
       <c r="D40" t="n">
-        <v>90.37515002502823</v>
+        <v>44.49005505406326</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3676,10 +3676,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>103.9868495142555</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21015193407416</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3703,13 +3703,13 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>27.92172025851026</v>
       </c>
       <c r="R40" t="n">
-        <v>103.2517656580479</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>165.7762750437881</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3727,7 +3727,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>160.3443303589107</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3737,76 +3737,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="X41" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D41" t="n">
+      <c r="Y41" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="E41" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="F41" t="n">
-        <v>47.42985907249486</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0</v>
-      </c>
-      <c r="R41" t="n">
-        <v>0</v>
-      </c>
-      <c r="S41" t="n">
-        <v>0</v>
-      </c>
-      <c r="T41" t="n">
-        <v>164.8555265709472</v>
-      </c>
-      <c r="U41" t="n">
-        <v>0</v>
-      </c>
-      <c r="V41" t="n">
-        <v>0</v>
-      </c>
-      <c r="W41" t="n">
-        <v>0</v>
-      </c>
-      <c r="X41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3822,13 +3822,13 @@
         <v>114.4681759951316</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>89.20474257145463</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>99.40475746221682</v>
       </c>
       <c r="F42" t="n">
-        <v>86.82888940019976</v>
+        <v>3.010126916505428</v>
       </c>
       <c r="G42" t="n">
         <v>79.10319417002651</v>
@@ -3879,7 +3879,7 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>104.7907375499771</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -3904,13 +3904,13 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>88.19363965338505</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>87.18072502974712</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>12.60946980613315</v>
+        <v>62.55439227374332</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3919,7 +3919,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>35.11885712348865</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3952,19 +3952,19 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>228.0787063633068</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>228.2826753434069</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>160.3443303589107</v>
       </c>
     </row>
     <row r="44">
@@ -3974,70 +3974,70 @@
         </is>
       </c>
       <c r="B44" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>62.4162677022923</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0</v>
+      </c>
+      <c r="U44" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C44" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="D44" t="n">
-        <v>0</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" t="n">
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>0</v>
-      </c>
-      <c r="R44" t="n">
-        <v>0</v>
-      </c>
-      <c r="S44" t="n">
-        <v>0</v>
-      </c>
-      <c r="T44" t="n">
-        <v>0</v>
-      </c>
-      <c r="U44" t="n">
-        <v>0</v>
-      </c>
-      <c r="V44" t="n">
-        <v>0</v>
-      </c>
-      <c r="W44" t="n">
-        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4062,19 +4062,19 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>116.0753138871885</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0.7465913262578567</v>
@@ -4107,22 +4107,22 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>38.05069677449606</v>
       </c>
       <c r="W45" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4141,55 +4141,55 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0</v>
+      </c>
+      <c r="U46" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="F46" t="n">
-        <v>0</v>
-      </c>
-      <c r="G46" t="n">
-        <v>0</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>0</v>
-      </c>
-      <c r="R46" t="n">
-        <v>0</v>
-      </c>
-      <c r="S46" t="n">
-        <v>0</v>
-      </c>
-      <c r="T46" t="n">
-        <v>0</v>
-      </c>
-      <c r="U46" t="n">
-        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>50.72300074896609</v>
+        <v>69.26509794647623</v>
       </c>
       <c r="C2" t="n">
-        <v>50.72300074896609</v>
+        <v>69.26509794647623</v>
       </c>
       <c r="D2" t="n">
-        <v>50.72300074896609</v>
+        <v>69.26509794647623</v>
       </c>
       <c r="E2" t="n">
-        <v>50.72300074896609</v>
+        <v>43.38601593169762</v>
       </c>
       <c r="F2" t="n">
-        <v>27.92870531034908</v>
+        <v>17.506933916919</v>
       </c>
       <c r="G2" t="n">
         <v>2.049623295570466</v>
@@ -4340,10 +4340,10 @@
         <v>51.75298821315428</v>
       </c>
       <c r="N2" t="n">
+        <v>51.75298821315428</v>
+      </c>
+      <c r="O2" t="n">
         <v>77.1170764958388</v>
-      </c>
-      <c r="O2" t="n">
-        <v>102.4811647785233</v>
       </c>
       <c r="P2" t="n">
         <v>102.4811647785233</v>
@@ -4355,25 +4355,25 @@
         <v>102.4811647785233</v>
       </c>
       <c r="S2" t="n">
-        <v>76.6020827637447</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="T2" t="n">
-        <v>76.6020827637447</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="U2" t="n">
-        <v>50.72300074896609</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="V2" t="n">
-        <v>50.72300074896609</v>
+        <v>95.14417996125485</v>
       </c>
       <c r="W2" t="n">
-        <v>50.72300074896609</v>
+        <v>95.14417996125485</v>
       </c>
       <c r="X2" t="n">
-        <v>50.72300074896609</v>
+        <v>95.14417996125485</v>
       </c>
       <c r="Y2" t="n">
-        <v>50.72300074896609</v>
+        <v>95.14417996125485</v>
       </c>
     </row>
     <row r="3">
@@ -4383,40 +4383,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>76.6020827637447</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="C3" t="n">
-        <v>50.72300074896609</v>
+        <v>80.44100199269204</v>
       </c>
       <c r="D3" t="n">
-        <v>24.84391873418747</v>
+        <v>54.56191997791342</v>
       </c>
       <c r="E3" t="n">
-        <v>2.049623295570466</v>
+        <v>28.6828379631348</v>
       </c>
       <c r="F3" t="n">
-        <v>2.049623295570466</v>
+        <v>28.6828379631348</v>
       </c>
       <c r="G3" t="n">
-        <v>2.049623295570466</v>
+        <v>28.6828379631348</v>
       </c>
       <c r="H3" t="n">
-        <v>2.049623295570466</v>
+        <v>2.80375594835618</v>
       </c>
       <c r="I3" t="n">
-        <v>2.049623295570466</v>
+        <v>2.80375594835618</v>
       </c>
       <c r="J3" t="n">
         <v>2.049623295570466</v>
       </c>
       <c r="K3" t="n">
+        <v>2.049623295570466</v>
+      </c>
+      <c r="L3" t="n">
+        <v>2.049623295570466</v>
+      </c>
+      <c r="M3" t="n">
         <v>26.38889993046976</v>
-      </c>
-      <c r="L3" t="n">
-        <v>51.75298821315428</v>
-      </c>
-      <c r="M3" t="n">
-        <v>51.75298821315428</v>
       </c>
       <c r="N3" t="n">
         <v>51.75298821315428</v>
@@ -4425,34 +4425,34 @@
         <v>77.1170764958388</v>
       </c>
       <c r="P3" t="n">
-        <v>102.4811647785233</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="Q3" t="n">
         <v>102.4811647785233</v>
       </c>
       <c r="R3" t="n">
-        <v>76.6020827637447</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="S3" t="n">
-        <v>76.6020827637447</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="T3" t="n">
-        <v>76.6020827637447</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="U3" t="n">
-        <v>76.6020827637447</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="V3" t="n">
-        <v>76.6020827637447</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="W3" t="n">
-        <v>76.6020827637447</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="X3" t="n">
-        <v>76.6020827637447</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Y3" t="n">
-        <v>76.6020827637447</v>
+        <v>102.4811647785233</v>
       </c>
     </row>
     <row r="4">
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>99.73223474306219</v>
+        <v>76.30222351288816</v>
       </c>
       <c r="C4" t="n">
-        <v>99.73223474306219</v>
+        <v>76.30222351288816</v>
       </c>
       <c r="D4" t="n">
-        <v>99.73223474306219</v>
+        <v>50.42314149810954</v>
       </c>
       <c r="E4" t="n">
-        <v>99.73223474306219</v>
+        <v>24.54405948333093</v>
       </c>
       <c r="F4" t="n">
-        <v>99.73223474306219</v>
+        <v>24.54405948333093</v>
       </c>
       <c r="G4" t="n">
-        <v>76.30222351288816</v>
+        <v>24.54405948333093</v>
       </c>
       <c r="H4" t="n">
-        <v>50.42314149810954</v>
+        <v>24.54405948333093</v>
       </c>
       <c r="I4" t="n">
         <v>24.54405948333093</v>
@@ -4504,34 +4504,34 @@
         <v>102.4811647785233</v>
       </c>
       <c r="P4" t="n">
-        <v>99.73223474306219</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q4" t="n">
-        <v>99.73223474306219</v>
+        <v>102.1813055276668</v>
       </c>
       <c r="R4" t="n">
-        <v>99.73223474306219</v>
+        <v>102.1813055276668</v>
       </c>
       <c r="S4" t="n">
-        <v>99.73223474306219</v>
+        <v>102.1813055276668</v>
       </c>
       <c r="T4" t="n">
-        <v>99.73223474306219</v>
+        <v>102.1813055276668</v>
       </c>
       <c r="U4" t="n">
-        <v>99.73223474306219</v>
+        <v>76.30222351288816</v>
       </c>
       <c r="V4" t="n">
-        <v>99.73223474306219</v>
+        <v>76.30222351288816</v>
       </c>
       <c r="W4" t="n">
-        <v>99.73223474306219</v>
+        <v>76.30222351288816</v>
       </c>
       <c r="X4" t="n">
-        <v>99.73223474306219</v>
+        <v>76.30222351288816</v>
       </c>
       <c r="Y4" t="n">
-        <v>99.73223474306219</v>
+        <v>76.30222351288816</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4541,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>62.40150592798446</v>
+        <v>92.38954941029625</v>
       </c>
       <c r="C5" t="n">
-        <v>62.40150592798446</v>
+        <v>92.38954941029625</v>
       </c>
       <c r="D5" t="n">
-        <v>62.40150592798446</v>
+        <v>81.3350871935596</v>
       </c>
       <c r="E5" t="n">
-        <v>62.40150592798446</v>
+        <v>81.3350871935596</v>
       </c>
       <c r="F5" t="n">
         <v>55.45600517878098</v>
@@ -4559,7 +4559,7 @@
         <v>39.99869455743244</v>
       </c>
       <c r="H5" t="n">
-        <v>14.11961254265382</v>
+        <v>39.99869455743244</v>
       </c>
       <c r="I5" t="n">
         <v>14.11961254265382</v>
@@ -4571,13 +4571,13 @@
         <v>27.41371157825499</v>
       </c>
       <c r="L5" t="n">
-        <v>52.77779986093952</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="M5" t="n">
-        <v>52.77779986093952</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="N5" t="n">
-        <v>52.77779986093952</v>
+        <v>51.75298821315427</v>
       </c>
       <c r="O5" t="n">
         <v>77.1170764958388</v>
@@ -4589,28 +4589,28 @@
         <v>92.38954941029625</v>
       </c>
       <c r="R5" t="n">
-        <v>88.28058794276308</v>
+        <v>92.38954941029625</v>
       </c>
       <c r="S5" t="n">
-        <v>88.28058794276308</v>
+        <v>92.38954941029625</v>
       </c>
       <c r="T5" t="n">
-        <v>88.28058794276308</v>
+        <v>92.38954941029625</v>
       </c>
       <c r="U5" t="n">
-        <v>88.28058794276308</v>
+        <v>92.38954941029625</v>
       </c>
       <c r="V5" t="n">
-        <v>88.28058794276308</v>
+        <v>92.38954941029625</v>
       </c>
       <c r="W5" t="n">
-        <v>88.28058794276308</v>
+        <v>92.38954941029625</v>
       </c>
       <c r="X5" t="n">
-        <v>88.28058794276308</v>
+        <v>92.38954941029625</v>
       </c>
       <c r="Y5" t="n">
-        <v>88.28058794276308</v>
+        <v>92.38954941029625</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.049623295570467</v>
+        <v>2.803755948356181</v>
       </c>
       <c r="C6" t="n">
-        <v>2.049623295570467</v>
+        <v>2.803755948356181</v>
       </c>
       <c r="D6" t="n">
-        <v>2.049623295570467</v>
+        <v>2.803755948356181</v>
       </c>
       <c r="E6" t="n">
-        <v>2.049623295570467</v>
+        <v>2.803755948356181</v>
       </c>
       <c r="F6" t="n">
-        <v>2.049623295570467</v>
+        <v>2.803755948356181</v>
       </c>
       <c r="G6" t="n">
-        <v>2.049623295570467</v>
+        <v>2.803755948356181</v>
       </c>
       <c r="H6" t="n">
-        <v>2.049623295570467</v>
+        <v>2.803755948356181</v>
       </c>
       <c r="I6" t="n">
-        <v>2.049623295570467</v>
+        <v>2.803755948356181</v>
       </c>
       <c r="J6" t="n">
         <v>2.049623295570467</v>
       </c>
       <c r="K6" t="n">
-        <v>26.38889993046975</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="L6" t="n">
-        <v>26.38889993046975</v>
+        <v>51.75298821315427</v>
       </c>
       <c r="M6" t="n">
-        <v>26.38889993046975</v>
+        <v>51.75298821315427</v>
       </c>
       <c r="N6" t="n">
-        <v>26.38889993046975</v>
+        <v>51.75298821315427</v>
       </c>
       <c r="O6" t="n">
-        <v>51.75298821315427</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="P6" t="n">
-        <v>77.1170764958388</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q6" t="n">
         <v>102.4811647785233</v>
       </c>
       <c r="R6" t="n">
-        <v>102.4811647785233</v>
+        <v>76.60208276374472</v>
       </c>
       <c r="S6" t="n">
-        <v>102.4811647785233</v>
+        <v>76.60208276374472</v>
       </c>
       <c r="T6" t="n">
-        <v>102.4811647785233</v>
+        <v>76.60208276374472</v>
       </c>
       <c r="U6" t="n">
-        <v>79.68686933990632</v>
+        <v>76.60208276374472</v>
       </c>
       <c r="V6" t="n">
-        <v>79.68686933990632</v>
+        <v>76.60208276374472</v>
       </c>
       <c r="W6" t="n">
-        <v>53.80778732512771</v>
+        <v>76.60208276374472</v>
       </c>
       <c r="X6" t="n">
-        <v>53.80778732512771</v>
+        <v>54.56191997791342</v>
       </c>
       <c r="Y6" t="n">
-        <v>27.92870531034909</v>
+        <v>28.6828379631348</v>
       </c>
     </row>
     <row r="7">
@@ -4699,7 +4699,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.049623295570467</v>
+        <v>27.92870531034909</v>
       </c>
       <c r="C7" t="n">
         <v>2.049623295570467</v>
@@ -4744,31 +4744,31 @@
         <v>102.4811647785233</v>
       </c>
       <c r="Q7" t="n">
-        <v>79.68686933990632</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R7" t="n">
-        <v>79.68686933990632</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="S7" t="n">
-        <v>79.68686933990632</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="T7" t="n">
-        <v>79.68686933990632</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="U7" t="n">
+        <v>102.4811647785233</v>
+      </c>
+      <c r="V7" t="n">
+        <v>76.6020827637447</v>
+      </c>
+      <c r="W7" t="n">
+        <v>76.6020827637447</v>
+      </c>
+      <c r="X7" t="n">
         <v>53.80778732512771</v>
       </c>
-      <c r="V7" t="n">
-        <v>27.92870531034909</v>
-      </c>
-      <c r="W7" t="n">
-        <v>2.049623295570467</v>
-      </c>
-      <c r="X7" t="n">
-        <v>2.049623295570467</v>
-      </c>
       <c r="Y7" t="n">
-        <v>2.049623295570467</v>
+        <v>53.80778732512771</v>
       </c>
     </row>
     <row r="8">
@@ -4778,43 +4778,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>64.54871502261837</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="C8" t="n">
-        <v>36.68000263846065</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="D8" t="n">
-        <v>36.68000263846065</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="E8" t="n">
-        <v>36.68000263846065</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="F8" t="n">
-        <v>29.73450188925718</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="G8" t="n">
-        <v>14.27719126790864</v>
+        <v>11.29665326744287</v>
       </c>
       <c r="H8" t="n">
-        <v>14.27719126790864</v>
+        <v>11.29665326744287</v>
       </c>
       <c r="I8" t="n">
-        <v>14.27719126790864</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J8" t="n">
         <v>2.207202020825291</v>
       </c>
       <c r="K8" t="n">
+        <v>2.207202020825291</v>
+      </c>
+      <c r="L8" t="n">
+        <v>2.207202020825291</v>
+      </c>
+      <c r="M8" t="n">
         <v>29.52132702853827</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>56.83545203625125</v>
-      </c>
-      <c r="M8" t="n">
-        <v>83.04597603355158</v>
-      </c>
-      <c r="N8" t="n">
-        <v>83.04597603355158</v>
       </c>
       <c r="O8" t="n">
         <v>83.04597603355158</v>
@@ -4823,31 +4823,31 @@
         <v>110.3601010412646</v>
       </c>
       <c r="Q8" t="n">
-        <v>100.2684856730375</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="R8" t="n">
-        <v>72.39977328887976</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="S8" t="n">
-        <v>72.39977328887976</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="T8" t="n">
-        <v>72.39977328887976</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="U8" t="n">
-        <v>72.39977328887976</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="V8" t="n">
-        <v>72.39977328887976</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="W8" t="n">
-        <v>72.39977328887976</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="X8" t="n">
-        <v>72.39977328887976</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="Y8" t="n">
-        <v>72.39977328887976</v>
+        <v>82.49138865710684</v>
       </c>
     </row>
     <row r="9">
@@ -4863,19 +4863,19 @@
         <v>54.62267627294912</v>
       </c>
       <c r="D9" t="n">
-        <v>30.83004705776872</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="E9" t="n">
-        <v>30.83004705776872</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="F9" t="n">
-        <v>30.83004705776872</v>
+        <v>2.961334673611005</v>
       </c>
       <c r="G9" t="n">
-        <v>30.83004705776872</v>
+        <v>2.961334673611005</v>
       </c>
       <c r="H9" t="n">
-        <v>30.83004705776872</v>
+        <v>2.961334673611005</v>
       </c>
       <c r="I9" t="n">
         <v>2.961334673611005</v>
@@ -4887,46 +4887,46 @@
         <v>2.207202020825291</v>
       </c>
       <c r="L9" t="n">
+        <v>2.207202020825291</v>
+      </c>
+      <c r="M9" t="n">
         <v>29.52132702853827</v>
       </c>
-      <c r="M9" t="n">
-        <v>56.83545203625125</v>
-      </c>
       <c r="N9" t="n">
-        <v>84.14957704396423</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="O9" t="n">
-        <v>110.3601010412646</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="P9" t="n">
-        <v>110.3601010412646</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="Q9" t="n">
         <v>110.3601010412646</v>
       </c>
       <c r="R9" t="n">
-        <v>110.3601010412646</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="S9" t="n">
-        <v>110.3601010412646</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="T9" t="n">
-        <v>110.3601010412646</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="U9" t="n">
-        <v>110.3601010412646</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="V9" t="n">
-        <v>110.3601010412646</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="W9" t="n">
-        <v>110.3601010412646</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="X9" t="n">
-        <v>110.3601010412646</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="Y9" t="n">
-        <v>110.3601010412646</v>
+        <v>82.49138865710684</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2.207202020825291</v>
+        <v>52.57035059274347</v>
       </c>
       <c r="C10" t="n">
-        <v>2.207202020825291</v>
+        <v>52.57035059274347</v>
       </c>
       <c r="D10" t="n">
-        <v>2.207202020825291</v>
+        <v>52.57035059274347</v>
       </c>
       <c r="E10" t="n">
-        <v>2.207202020825291</v>
+        <v>52.57035059274347</v>
       </c>
       <c r="F10" t="n">
-        <v>2.207202020825291</v>
+        <v>52.57035059274347</v>
       </c>
       <c r="G10" t="n">
-        <v>2.207202020825291</v>
+        <v>52.57035059274347</v>
       </c>
       <c r="H10" t="n">
-        <v>2.207202020825291</v>
+        <v>52.57035059274347</v>
       </c>
       <c r="I10" t="n">
-        <v>2.207202020825291</v>
+        <v>24.70163820858575</v>
       </c>
       <c r="J10" t="n">
-        <v>2.207202020825291</v>
+        <v>24.70163820858575</v>
       </c>
       <c r="K10" t="n">
         <v>2.207202020825291</v>
@@ -4987,25 +4987,25 @@
         <v>108.4888536788635</v>
       </c>
       <c r="S10" t="n">
-        <v>85.81333917329844</v>
+        <v>80.62014129470579</v>
       </c>
       <c r="T10" t="n">
-        <v>85.81333917329844</v>
+        <v>80.62014129470579</v>
       </c>
       <c r="U10" t="n">
-        <v>57.94462678914073</v>
+        <v>52.75142891054807</v>
       </c>
       <c r="V10" t="n">
-        <v>30.07591440498301</v>
+        <v>52.75142891054807</v>
       </c>
       <c r="W10" t="n">
-        <v>2.207202020825291</v>
+        <v>52.75142891054807</v>
       </c>
       <c r="X10" t="n">
-        <v>2.207202020825291</v>
+        <v>52.75142891054807</v>
       </c>
       <c r="Y10" t="n">
-        <v>2.207202020825291</v>
+        <v>52.57035059274347</v>
       </c>
     </row>
     <row r="11">
@@ -5015,10 +5015,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C11" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D11" t="n">
         <v>19.28114311021272</v>
@@ -5066,25 +5066,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S11" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T11" t="n">
-        <v>527.5764290961142</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U11" t="n">
-        <v>284.1276524520142</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V11" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W11" t="n">
         <v>262.7299197543128</v>
       </c>
       <c r="X11" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y11" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="12">
@@ -5094,10 +5094,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>720.6083788665362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="C12" t="n">
-        <v>720.6083788665362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="D12" t="n">
         <v>668.2068788942177</v>
@@ -5130,10 +5130,10 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N12" t="n">
-        <v>851.8101010141643</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O12" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P12" t="n">
         <v>894.6625969973069</v>
@@ -5151,19 +5151,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U12" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V12" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="W12" t="n">
-        <v>720.6083788665362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="X12" t="n">
-        <v>720.6083788665362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="Y12" t="n">
-        <v>720.6083788665362</v>
+        <v>735.8335372470253</v>
       </c>
     </row>
     <row r="13">
@@ -5194,10 +5194,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="I13" t="n">
-        <v>113.583345248266</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J13" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K13" t="n">
         <v>19.28114311021272</v>
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C14" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D14" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="E14" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="F14" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="G14" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="H14" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I14" t="n">
         <v>19.28114311021272</v>
@@ -5297,31 +5297,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q14" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R14" t="n">
-        <v>942.6594228129348</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S14" t="n">
-        <v>731.528039392485</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T14" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U14" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V14" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W14" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X14" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y14" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="15">
@@ -5358,13 +5358,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K15" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L15" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M15" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N15" t="n">
         <v>712.019119383956</v>
@@ -5410,31 +5410,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I16" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J16" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K16" t="n">
         <v>19.28114311021272</v>
@@ -5452,34 +5452,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P16" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q16" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="17">
@@ -5489,28 +5489,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>19.28114311021272</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="C17" t="n">
-        <v>19.28114311021272</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="D17" t="n">
-        <v>19.28114311021272</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="E17" t="n">
-        <v>19.28114311021272</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="F17" t="n">
-        <v>19.28114311021272</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="G17" t="n">
-        <v>19.28114311021272</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="H17" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I17" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5537,28 +5537,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R17" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S17" t="n">
-        <v>591.4512093066566</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T17" t="n">
-        <v>366.1018663125844</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U17" t="n">
-        <v>122.6530896684844</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V17" t="n">
-        <v>19.28114311021272</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W17" t="n">
-        <v>19.28114311021272</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X17" t="n">
-        <v>19.28114311021272</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y17" t="n">
-        <v>19.28114311021272</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="18">
@@ -5568,25 +5568,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>964.0571555106362</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="C18" t="n">
-        <v>817.1412885554689</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="D18" t="n">
-        <v>668.2068788942177</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="E18" t="n">
-        <v>508.9694238887622</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="F18" t="n">
-        <v>362.4348659156472</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="G18" t="n">
-        <v>223.7040404982626</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="H18" t="n">
-        <v>110.334904905842</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="I18" t="n">
         <v>20.03527576299844</v>
@@ -5595,49 +5595,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>473.4149733950735</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N18" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O18" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P18" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S18" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T18" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U18" t="n">
-        <v>964.0571555106362</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V18" t="n">
-        <v>964.0571555106362</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="W18" t="n">
-        <v>964.0571555106362</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="X18" t="n">
-        <v>964.0571555106362</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="Y18" t="n">
-        <v>964.0571555106362</v>
+        <v>23.90796037760316</v>
       </c>
     </row>
     <row r="19">
@@ -5698,7 +5698,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T19" t="n">
         <v>19.28114311021272</v>
@@ -5726,10 +5726,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>262.7299197543128</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C20" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="D20" t="n">
         <v>19.28114311021272</v>
@@ -5783,19 +5783,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U20" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="V20" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="W20" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="X20" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="Y20" t="n">
         <v>720.6083788665362</v>
-      </c>
-      <c r="V20" t="n">
-        <v>506.1786963984129</v>
-      </c>
-      <c r="W20" t="n">
-        <v>506.1786963984129</v>
-      </c>
-      <c r="X20" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="21">
@@ -5805,28 +5805,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>461.2466632505798</v>
+        <v>279.1848366757484</v>
       </c>
       <c r="C21" t="n">
-        <v>461.2466632505798</v>
+        <v>279.1848366757484</v>
       </c>
       <c r="D21" t="n">
-        <v>461.2466632505798</v>
+        <v>279.1848366757484</v>
       </c>
       <c r="E21" t="n">
-        <v>461.2466632505798</v>
+        <v>279.1848366757484</v>
       </c>
       <c r="F21" t="n">
-        <v>362.4348659156472</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="G21" t="n">
-        <v>223.7040404982626</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H21" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
@@ -5838,43 +5838,43 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>374.6018090363993</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N21" t="n">
-        <v>473.4149733950735</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O21" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P21" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>862.8876260635219</v>
+        <v>958.7087317889923</v>
       </c>
       <c r="S21" t="n">
-        <v>689.4702815141908</v>
+        <v>958.7087317889923</v>
       </c>
       <c r="T21" t="n">
-        <v>689.4702815141908</v>
+        <v>958.7087317889923</v>
       </c>
       <c r="U21" t="n">
-        <v>461.2466632505798</v>
+        <v>730.4851135253814</v>
       </c>
       <c r="V21" t="n">
-        <v>461.2466632505798</v>
+        <v>730.4851135253814</v>
       </c>
       <c r="W21" t="n">
-        <v>461.2466632505798</v>
+        <v>487.0363368812813</v>
       </c>
       <c r="X21" t="n">
-        <v>461.2466632505798</v>
+        <v>279.1848366757484</v>
       </c>
       <c r="Y21" t="n">
-        <v>461.2466632505798</v>
+        <v>279.1848366757484</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L22" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M22" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N22" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5963,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>474.7677438690949</v>
+        <v>262.9199678649049</v>
       </c>
       <c r="C23" t="n">
-        <v>231.1428663071</v>
+        <v>262.9199678649049</v>
       </c>
       <c r="D23" t="n">
-        <v>231.1428663071</v>
+        <v>262.9199678649049</v>
       </c>
       <c r="E23" t="n">
-        <v>231.1428663071</v>
+        <v>262.9199678649049</v>
       </c>
       <c r="F23" t="n">
-        <v>231.1428663071</v>
+        <v>262.9199678649049</v>
       </c>
       <c r="G23" t="n">
-        <v>231.1428663071</v>
+        <v>19.29509030291</v>
       </c>
       <c r="H23" t="n">
-        <v>231.1428663071</v>
+        <v>19.29509030291</v>
       </c>
       <c r="I23" t="n">
         <v>19.29509030291</v>
@@ -6002,37 +6002,37 @@
         <v>725.2160972686345</v>
       </c>
       <c r="O23" t="n">
-        <v>875.0944598534491</v>
+        <v>874.4110474112825</v>
       </c>
       <c r="P23" t="n">
         <v>964.7545151455</v>
       </c>
       <c r="Q23" t="n">
-        <v>964.7545151454999</v>
+        <v>964.7545151455</v>
       </c>
       <c r="R23" t="n">
-        <v>964.7545151454999</v>
+        <v>964.7545151455</v>
       </c>
       <c r="S23" t="n">
-        <v>754.3772643778358</v>
+        <v>964.7545151455</v>
       </c>
       <c r="T23" t="n">
-        <v>754.3772643778358</v>
+        <v>750.1697229888948</v>
       </c>
       <c r="U23" t="n">
-        <v>754.3772643778358</v>
+        <v>750.1697229888948</v>
       </c>
       <c r="V23" t="n">
-        <v>754.3772643778358</v>
+        <v>750.1697229888948</v>
       </c>
       <c r="W23" t="n">
-        <v>754.3772643778358</v>
+        <v>750.1697229888948</v>
       </c>
       <c r="X23" t="n">
-        <v>754.3772643778358</v>
+        <v>750.1697229888948</v>
       </c>
       <c r="Y23" t="n">
-        <v>510.7523868158409</v>
+        <v>506.5448454268999</v>
       </c>
     </row>
     <row r="24">
@@ -6042,22 +6042,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>517.9156048498713</v>
+        <v>267.3239091456376</v>
       </c>
       <c r="C24" t="n">
-        <v>517.9156048498713</v>
+        <v>267.3239091456376</v>
       </c>
       <c r="D24" t="n">
-        <v>517.9156048498713</v>
+        <v>267.3239091456376</v>
       </c>
       <c r="E24" t="n">
-        <v>359.4322824972015</v>
+        <v>108.8405867929678</v>
       </c>
       <c r="F24" t="n">
-        <v>359.4322824972015</v>
+        <v>108.8405867929678</v>
       </c>
       <c r="G24" t="n">
-        <v>221.4555897326028</v>
+        <v>108.8405867929678</v>
       </c>
       <c r="H24" t="n">
         <v>108.8405867929678</v>
@@ -6072,46 +6072,46 @@
         <v>144.6526503607474</v>
       </c>
       <c r="L24" t="n">
-        <v>374.6157562290965</v>
+        <v>144.6526503607474</v>
       </c>
       <c r="M24" t="n">
-        <v>374.6157562290965</v>
+        <v>383.4293928592587</v>
       </c>
       <c r="N24" t="n">
-        <v>543.3342950336379</v>
+        <v>622.2061353577699</v>
       </c>
       <c r="O24" t="n">
-        <v>782.1110375321491</v>
+        <v>860.9828778562811</v>
       </c>
       <c r="P24" t="n">
-        <v>964.7545151454999</v>
+        <v>895.3599566321707</v>
       </c>
       <c r="Q24" t="n">
-        <v>964.7545151454999</v>
+        <v>964.7545151455</v>
       </c>
       <c r="R24" t="n">
-        <v>892.3829753293219</v>
+        <v>964.7545151455</v>
       </c>
       <c r="S24" t="n">
-        <v>892.3829753293219</v>
+        <v>964.7545151455</v>
       </c>
       <c r="T24" t="n">
-        <v>892.3829753293219</v>
+        <v>763.3220531570518</v>
       </c>
       <c r="U24" t="n">
-        <v>892.3829753293219</v>
+        <v>535.8525675462265</v>
       </c>
       <c r="V24" t="n">
-        <v>892.3829753293219</v>
+        <v>301.4545919672695</v>
       </c>
       <c r="W24" t="n">
-        <v>892.3829753293219</v>
+        <v>267.3239091456376</v>
       </c>
       <c r="X24" t="n">
-        <v>892.3829753293219</v>
+        <v>267.3239091456376</v>
       </c>
       <c r="Y24" t="n">
-        <v>685.3768092171537</v>
+        <v>267.3239091456376</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>827.265723003248</v>
+        <v>19.29509030291</v>
       </c>
       <c r="C25" t="n">
-        <v>827.265723003248</v>
+        <v>19.29509030291</v>
       </c>
       <c r="D25" t="n">
-        <v>827.265723003248</v>
+        <v>19.29509030291</v>
       </c>
       <c r="E25" t="n">
-        <v>827.265723003248</v>
+        <v>19.29509030291</v>
       </c>
       <c r="F25" t="n">
-        <v>827.265723003248</v>
+        <v>19.29509030291</v>
       </c>
       <c r="G25" t="n">
-        <v>827.265723003248</v>
+        <v>19.29509030291</v>
       </c>
       <c r="H25" t="n">
-        <v>827.265723003248</v>
+        <v>19.29509030291</v>
       </c>
       <c r="I25" t="n">
-        <v>827.265723003248</v>
+        <v>19.29509030291</v>
       </c>
       <c r="J25" t="n">
-        <v>827.265723003248</v>
+        <v>19.29509030291</v>
       </c>
       <c r="K25" t="n">
-        <v>827.265723003248</v>
+        <v>19.29509030291</v>
       </c>
       <c r="L25" t="n">
-        <v>855.3189734239563</v>
+        <v>47.34834072361826</v>
       </c>
       <c r="M25" t="n">
-        <v>895.2461370291737</v>
+        <v>87.27550432883572</v>
       </c>
       <c r="N25" t="n">
-        <v>939.6761130976054</v>
+        <v>131.7054803972673</v>
       </c>
       <c r="O25" t="n">
-        <v>964.7545151454999</v>
+        <v>156.7838824451619</v>
       </c>
       <c r="P25" t="n">
-        <v>964.7545151454999</v>
+        <v>154.7890850624864</v>
       </c>
       <c r="Q25" t="n">
-        <v>964.7545151454999</v>
+        <v>154.7890850624864</v>
       </c>
       <c r="R25" t="n">
-        <v>964.7545151454999</v>
+        <v>19.29509030291</v>
       </c>
       <c r="S25" t="n">
-        <v>964.7545151454999</v>
+        <v>19.29509030291</v>
       </c>
       <c r="T25" t="n">
-        <v>964.7545151454999</v>
+        <v>19.29509030291</v>
       </c>
       <c r="U25" t="n">
-        <v>827.265723003248</v>
+        <v>19.29509030291</v>
       </c>
       <c r="V25" t="n">
-        <v>827.265723003248</v>
+        <v>19.29509030291</v>
       </c>
       <c r="W25" t="n">
-        <v>827.265723003248</v>
+        <v>19.29509030291</v>
       </c>
       <c r="X25" t="n">
-        <v>827.265723003248</v>
+        <v>19.29509030291</v>
       </c>
       <c r="Y25" t="n">
-        <v>827.265723003248</v>
+        <v>19.29509030291</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6200,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>224.5423997440738</v>
+        <v>506.5448454268999</v>
       </c>
       <c r="C26" t="n">
-        <v>19.29509030291</v>
+        <v>262.9199678649049</v>
       </c>
       <c r="D26" t="n">
         <v>19.29509030291</v>
@@ -6245,31 +6245,31 @@
         <v>964.7545151455</v>
       </c>
       <c r="Q26" t="n">
-        <v>955.4170324300586</v>
+        <v>964.7545151455</v>
       </c>
       <c r="R26" t="n">
-        <v>955.4170324300586</v>
+        <v>964.7545151455</v>
       </c>
       <c r="S26" t="n">
-        <v>955.4170324300586</v>
+        <v>964.7545151455</v>
       </c>
       <c r="T26" t="n">
-        <v>955.4170324300586</v>
+        <v>964.7545151455</v>
       </c>
       <c r="U26" t="n">
-        <v>955.4170324300586</v>
+        <v>964.7545151455</v>
       </c>
       <c r="V26" t="n">
-        <v>955.4170324300586</v>
+        <v>964.7545151455</v>
       </c>
       <c r="W26" t="n">
-        <v>711.7921548680637</v>
+        <v>964.7545151455</v>
       </c>
       <c r="X26" t="n">
-        <v>468.1672773060687</v>
+        <v>964.7545151454999</v>
       </c>
       <c r="Y26" t="n">
-        <v>224.5423997440738</v>
+        <v>750.1697229888948</v>
       </c>
     </row>
     <row r="27">
@@ -6279,25 +6279,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>346.6622671040544</v>
+        <v>108.8405867929678</v>
       </c>
       <c r="C27" t="n">
-        <v>172.9633704757131</v>
+        <v>108.8405867929678</v>
       </c>
       <c r="D27" t="n">
-        <v>172.9633704757131</v>
+        <v>108.8405867929678</v>
       </c>
       <c r="E27" t="n">
-        <v>165.0755156232393</v>
+        <v>108.8405867929678</v>
       </c>
       <c r="F27" t="n">
-        <v>19.29509030291</v>
+        <v>108.8405867929678</v>
       </c>
       <c r="G27" t="n">
-        <v>19.29509030291</v>
+        <v>108.8405867929678</v>
       </c>
       <c r="H27" t="n">
-        <v>19.29509030291</v>
+        <v>108.8405867929678</v>
       </c>
       <c r="I27" t="n">
         <v>19.29509030291</v>
@@ -6306,16 +6306,16 @@
         <v>19.29509030291</v>
       </c>
       <c r="K27" t="n">
-        <v>19.29509030291</v>
+        <v>144.6526503607474</v>
       </c>
       <c r="L27" t="n">
+        <v>144.6526503607474</v>
+      </c>
+      <c r="M27" t="n">
         <v>235.1629940217972</v>
       </c>
-      <c r="M27" t="n">
+      <c r="N27" t="n">
         <v>473.9397365203084</v>
-      </c>
-      <c r="N27" t="n">
-        <v>712.7164790188197</v>
       </c>
       <c r="O27" t="n">
         <v>712.7164790188197</v>
@@ -6327,28 +6327,28 @@
         <v>964.7545151454999</v>
       </c>
       <c r="R27" t="n">
-        <v>964.7545151454999</v>
+        <v>864.3391183511714</v>
       </c>
       <c r="S27" t="n">
-        <v>964.7545151454999</v>
+        <v>691.6759064546259</v>
       </c>
       <c r="T27" t="n">
-        <v>964.7545151454999</v>
+        <v>490.2434444661776</v>
       </c>
       <c r="U27" t="n">
-        <v>964.7545151454999</v>
+        <v>262.7739588553524</v>
       </c>
       <c r="V27" t="n">
-        <v>964.7545151454999</v>
+        <v>108.8405867929678</v>
       </c>
       <c r="W27" t="n">
-        <v>721.129637583505</v>
+        <v>108.8405867929678</v>
       </c>
       <c r="X27" t="n">
-        <v>721.129637583505</v>
+        <v>108.8405867929678</v>
       </c>
       <c r="Y27" t="n">
-        <v>514.1234714713368</v>
+        <v>108.8405867929678</v>
       </c>
     </row>
     <row r="28">
@@ -6358,7 +6358,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>156.7838824451619</v>
+        <v>19.29509030291</v>
       </c>
       <c r="C28" t="n">
         <v>19.29509030291</v>
@@ -6409,25 +6409,25 @@
         <v>156.7838824451619</v>
       </c>
       <c r="S28" t="n">
-        <v>156.7838824451619</v>
+        <v>19.29509030291</v>
       </c>
       <c r="T28" t="n">
-        <v>156.7838824451619</v>
+        <v>19.29509030291</v>
       </c>
       <c r="U28" t="n">
-        <v>156.7838824451619</v>
+        <v>19.29509030291</v>
       </c>
       <c r="V28" t="n">
-        <v>156.7838824451619</v>
+        <v>19.29509030291</v>
       </c>
       <c r="W28" t="n">
-        <v>156.7838824451619</v>
+        <v>19.29509030291</v>
       </c>
       <c r="X28" t="n">
-        <v>156.7838824451619</v>
+        <v>19.29509030291</v>
       </c>
       <c r="Y28" t="n">
-        <v>156.7838824451619</v>
+        <v>19.29509030291</v>
       </c>
     </row>
     <row r="29">
@@ -6437,25 +6437,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>402.1914950504267</v>
+        <v>306.2712422676204</v>
       </c>
       <c r="C29" t="n">
-        <v>402.1914950504267</v>
+        <v>306.2712422676204</v>
       </c>
       <c r="D29" t="n">
-        <v>402.1914950504267</v>
+        <v>306.2712422676204</v>
       </c>
       <c r="E29" t="n">
-        <v>402.1914950504267</v>
+        <v>306.2712422676204</v>
       </c>
       <c r="F29" t="n">
-        <v>112.4169561179325</v>
+        <v>306.2712422676204</v>
       </c>
       <c r="G29" t="n">
-        <v>112.4169561179325</v>
+        <v>306.2712422676204</v>
       </c>
       <c r="H29" t="n">
-        <v>112.4169561179325</v>
+        <v>22.95014348345354</v>
       </c>
       <c r="I29" t="n">
         <v>22.95014348345354</v>
@@ -6464,22 +6464,22 @@
         <v>69.51739219863471</v>
       </c>
       <c r="K29" t="n">
-        <v>172.5323981095571</v>
+        <v>230.9294432858051</v>
       </c>
       <c r="L29" t="n">
-        <v>411.0052948704636</v>
+        <v>411.0052948704637</v>
       </c>
       <c r="M29" t="n">
-        <v>627.9809221333677</v>
+        <v>627.9809221333678</v>
       </c>
       <c r="N29" t="n">
-        <v>833.835444340607</v>
+        <v>833.8354443406072</v>
       </c>
       <c r="O29" t="n">
-        <v>983.030394483255</v>
+        <v>1041.427439659503</v>
       </c>
       <c r="P29" t="n">
-        <v>1099.000921218829</v>
+        <v>1131.087494951554</v>
       </c>
       <c r="Q29" t="n">
         <v>1147.507174172677</v>
@@ -6491,22 +6491,22 @@
         <v>1147.507174172677</v>
       </c>
       <c r="T29" t="n">
-        <v>981.740572915415</v>
+        <v>981.7405729154152</v>
       </c>
       <c r="U29" t="n">
-        <v>981.740572915415</v>
+        <v>787.4388167655218</v>
       </c>
       <c r="V29" t="n">
-        <v>981.740572915415</v>
+        <v>515.9586711587613</v>
       </c>
       <c r="W29" t="n">
-        <v>981.740572915415</v>
+        <v>306.2712422676204</v>
       </c>
       <c r="X29" t="n">
-        <v>691.9660339829209</v>
+        <v>306.2712422676204</v>
       </c>
       <c r="Y29" t="n">
-        <v>691.9660339829209</v>
+        <v>306.2712422676204</v>
       </c>
     </row>
     <row r="30">
@@ -6516,25 +6516,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>362.9049925864181</v>
+        <v>317.7697047864056</v>
       </c>
       <c r="C30" t="n">
-        <v>362.9049925864181</v>
+        <v>202.8994172420886</v>
       </c>
       <c r="D30" t="n">
-        <v>273.5533246619769</v>
+        <v>113.5477493176474</v>
       </c>
       <c r="E30" t="n">
-        <v>273.5533246619769</v>
+        <v>22.95014348345354</v>
       </c>
       <c r="F30" t="n">
-        <v>186.601508425672</v>
+        <v>22.95014348345354</v>
       </c>
       <c r="G30" t="n">
-        <v>107.4534247450976</v>
+        <v>22.95014348345354</v>
       </c>
       <c r="H30" t="n">
-        <v>53.66703088948698</v>
+        <v>22.95014348345354</v>
       </c>
       <c r="I30" t="n">
         <v>22.95014348345354</v>
@@ -6543,19 +6543,19 @@
         <v>22.95014348345354</v>
       </c>
       <c r="K30" t="n">
-        <v>22.95014348345354</v>
+        <v>78.69967274655971</v>
       </c>
       <c r="L30" t="n">
-        <v>78.6996727465596</v>
+        <v>78.69967274655971</v>
       </c>
       <c r="M30" t="n">
-        <v>362.7076983542971</v>
+        <v>362.7076983542973</v>
       </c>
       <c r="N30" t="n">
-        <v>646.7157239620346</v>
+        <v>646.7157239620349</v>
       </c>
       <c r="O30" t="n">
-        <v>895.4691380459969</v>
+        <v>895.4691380459972</v>
       </c>
       <c r="P30" t="n">
         <v>1078.112615659348</v>
@@ -6567,25 +6567,25 @@
         <v>1147.507174172677</v>
       </c>
       <c r="S30" t="n">
-        <v>1033.672571360156</v>
+        <v>1147.507174172677</v>
       </c>
       <c r="T30" t="n">
-        <v>1033.672571360156</v>
+        <v>1004.903321268253</v>
       </c>
       <c r="U30" t="n">
-        <v>865.031694833355</v>
+        <v>836.2624447414524</v>
       </c>
       <c r="V30" t="n">
-        <v>689.4623283384224</v>
+        <v>660.6930782465198</v>
       </c>
       <c r="W30" t="n">
-        <v>494.8077133470308</v>
+        <v>466.0384632551282</v>
       </c>
       <c r="X30" t="n">
-        <v>494.8077133470308</v>
+        <v>317.7697047864056</v>
       </c>
       <c r="Y30" t="n">
-        <v>471.5375878696761</v>
+        <v>317.7697047864056</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>111.2804953290366</v>
+        <v>910.0249339449646</v>
       </c>
       <c r="C31" t="n">
-        <v>111.2804953290366</v>
+        <v>910.0249339449646</v>
       </c>
       <c r="D31" t="n">
-        <v>111.2804953290366</v>
+        <v>819.491036269439</v>
       </c>
       <c r="E31" t="n">
-        <v>22.95014348345354</v>
+        <v>819.491036269439</v>
       </c>
       <c r="F31" t="n">
-        <v>22.95014348345354</v>
+        <v>819.491036269439</v>
       </c>
       <c r="G31" t="n">
-        <v>22.95014348345354</v>
+        <v>819.491036269439</v>
       </c>
       <c r="H31" t="n">
-        <v>22.95014348345354</v>
+        <v>819.491036269439</v>
       </c>
       <c r="I31" t="n">
-        <v>22.95014348345354</v>
+        <v>722.0530962615437</v>
       </c>
       <c r="J31" t="n">
-        <v>22.95014348345354</v>
+        <v>687.3336358603004</v>
       </c>
       <c r="K31" t="n">
-        <v>59.30039175207708</v>
+        <v>723.683884128924</v>
       </c>
       <c r="L31" t="n">
-        <v>145.0115619360376</v>
+        <v>809.3950543128846</v>
       </c>
       <c r="M31" t="n">
-        <v>242.5966453045073</v>
+        <v>906.9801376813543</v>
       </c>
       <c r="N31" t="n">
-        <v>344.6845411361912</v>
+        <v>1009.068033513038</v>
       </c>
       <c r="O31" t="n">
-        <v>427.420862947338</v>
+        <v>1091.804355324185</v>
       </c>
       <c r="P31" t="n">
-        <v>483.1236817958302</v>
+        <v>1147.507174172677</v>
       </c>
       <c r="Q31" t="n">
-        <v>483.1236817958302</v>
+        <v>1147.507174172677</v>
       </c>
       <c r="R31" t="n">
-        <v>483.1236817958302</v>
+        <v>1147.507174172677</v>
       </c>
       <c r="S31" t="n">
-        <v>483.1236817958302</v>
+        <v>980.8105239529497</v>
       </c>
       <c r="T31" t="n">
-        <v>483.1236817958302</v>
+        <v>980.8105239529497</v>
       </c>
       <c r="U31" t="n">
-        <v>483.1236817958302</v>
+        <v>980.8105239529497</v>
       </c>
       <c r="V31" t="n">
-        <v>288.0219353267534</v>
+        <v>980.8105239529497</v>
       </c>
       <c r="W31" t="n">
-        <v>288.0219353267534</v>
+        <v>980.8105239529497</v>
       </c>
       <c r="X31" t="n">
-        <v>233.3462184224662</v>
+        <v>980.8105239529497</v>
       </c>
       <c r="Y31" t="n">
-        <v>233.3462184224662</v>
+        <v>910.0249339449646</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6674,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>34.83471001306191</v>
+        <v>1147.507174172677</v>
       </c>
       <c r="C32" t="n">
-        <v>34.83471001306191</v>
+        <v>857.7326352401826</v>
       </c>
       <c r="D32" t="n">
-        <v>34.83471001306191</v>
+        <v>567.9580963076885</v>
       </c>
       <c r="E32" t="n">
-        <v>34.83471001306191</v>
+        <v>278.1835573751944</v>
       </c>
       <c r="F32" t="n">
-        <v>34.83471001306191</v>
+        <v>22.95014348345353</v>
       </c>
       <c r="G32" t="n">
-        <v>34.83471001306191</v>
+        <v>22.95014348345353</v>
       </c>
       <c r="H32" t="n">
         <v>22.95014348345353</v>
@@ -6698,52 +6698,52 @@
         <v>22.95014348345353</v>
       </c>
       <c r="J32" t="n">
-        <v>69.5173921986347</v>
+        <v>22.95014348345353</v>
       </c>
       <c r="K32" t="n">
-        <v>172.5323981095571</v>
+        <v>184.3621945706234</v>
       </c>
       <c r="L32" t="n">
-        <v>352.6082496942156</v>
+        <v>378.9187211377384</v>
       </c>
       <c r="M32" t="n">
-        <v>627.9809221333674</v>
+        <v>595.8943484006426</v>
       </c>
       <c r="N32" t="n">
-        <v>833.8354443406067</v>
+        <v>860.1459157841296</v>
       </c>
       <c r="O32" t="n">
-        <v>1041.427439659502</v>
+        <v>1009.340865926778</v>
       </c>
       <c r="P32" t="n">
-        <v>1147.507174172677</v>
+        <v>1099.000921218829</v>
       </c>
       <c r="Q32" t="n">
         <v>1147.507174172677</v>
       </c>
       <c r="R32" t="n">
-        <v>1055.706968494184</v>
+        <v>1147.507174172677</v>
       </c>
       <c r="S32" t="n">
-        <v>904.1583268105442</v>
+        <v>1147.507174172677</v>
       </c>
       <c r="T32" t="n">
-        <v>904.1583268105442</v>
+        <v>1147.507174172677</v>
       </c>
       <c r="U32" t="n">
-        <v>904.1583268105442</v>
+        <v>1147.507174172677</v>
       </c>
       <c r="V32" t="n">
-        <v>904.1583268105442</v>
+        <v>1147.507174172677</v>
       </c>
       <c r="W32" t="n">
-        <v>614.38378787805</v>
+        <v>1147.507174172677</v>
       </c>
       <c r="X32" t="n">
-        <v>324.609248945556</v>
+        <v>1147.507174172677</v>
       </c>
       <c r="Y32" t="n">
-        <v>324.609248945556</v>
+        <v>1147.507174172677</v>
       </c>
     </row>
     <row r="33">
@@ -6753,19 +6753,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>425.9815264320641</v>
+        <v>283.7569089058437</v>
       </c>
       <c r="C33" t="n">
-        <v>425.9815264320641</v>
+        <v>283.7569089058437</v>
       </c>
       <c r="D33" t="n">
-        <v>336.6298585076229</v>
+        <v>194.4052409814025</v>
       </c>
       <c r="E33" t="n">
-        <v>236.9751452389775</v>
+        <v>194.4052409814025</v>
       </c>
       <c r="F33" t="n">
-        <v>150.0233290026726</v>
+        <v>107.4534247450975</v>
       </c>
       <c r="G33" t="n">
         <v>107.4534247450975</v>
@@ -6780,22 +6780,22 @@
         <v>22.95014348345353</v>
       </c>
       <c r="K33" t="n">
-        <v>148.3077035412909</v>
+        <v>100.7746030048904</v>
       </c>
       <c r="L33" t="n">
-        <v>378.2708094096401</v>
+        <v>330.7377088732396</v>
       </c>
       <c r="M33" t="n">
-        <v>662.2788350173776</v>
+        <v>614.745734480977</v>
       </c>
       <c r="N33" t="n">
-        <v>662.2788350173776</v>
+        <v>898.7537600887144</v>
       </c>
       <c r="O33" t="n">
-        <v>911.0322491013399</v>
+        <v>1147.507174172677</v>
       </c>
       <c r="P33" t="n">
-        <v>1093.675726714691</v>
+        <v>1147.507174172677</v>
       </c>
       <c r="Q33" t="n">
         <v>1147.507174172677</v>
@@ -6804,25 +6804,25 @@
         <v>1147.507174172677</v>
       </c>
       <c r="S33" t="n">
-        <v>1033.672571360155</v>
+        <v>1033.672571360156</v>
       </c>
       <c r="T33" t="n">
-        <v>891.0687184557315</v>
+        <v>943.4987159209027</v>
       </c>
       <c r="U33" t="n">
-        <v>722.4278419289307</v>
+        <v>774.8578393941018</v>
       </c>
       <c r="V33" t="n">
-        <v>722.4278419289307</v>
+        <v>774.8578393941018</v>
       </c>
       <c r="W33" t="n">
-        <v>722.4278419289307</v>
+        <v>580.2032244027102</v>
       </c>
       <c r="X33" t="n">
-        <v>574.159083460208</v>
+        <v>431.9344659339876</v>
       </c>
       <c r="Y33" t="n">
-        <v>425.9815264320641</v>
+        <v>283.7569089058437</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>784.771575868195</v>
+        <v>148.2035015602224</v>
       </c>
       <c r="C34" t="n">
-        <v>784.771575868195</v>
+        <v>148.2035015602224</v>
       </c>
       <c r="D34" t="n">
-        <v>784.771575868195</v>
+        <v>57.66960388469677</v>
       </c>
       <c r="E34" t="n">
-        <v>784.771575868195</v>
+        <v>57.66960388469677</v>
       </c>
       <c r="F34" t="n">
-        <v>784.771575868195</v>
+        <v>57.66960388469677</v>
       </c>
       <c r="G34" t="n">
-        <v>784.771575868195</v>
+        <v>57.66960388469677</v>
       </c>
       <c r="H34" t="n">
-        <v>784.771575868195</v>
+        <v>57.66960388469677</v>
       </c>
       <c r="I34" t="n">
-        <v>687.3336358602998</v>
+        <v>57.66960388469677</v>
       </c>
       <c r="J34" t="n">
-        <v>687.3336358602998</v>
+        <v>22.95014348345353</v>
       </c>
       <c r="K34" t="n">
-        <v>723.6838841289233</v>
+        <v>59.30039175207708</v>
       </c>
       <c r="L34" t="n">
-        <v>809.3950543128839</v>
+        <v>145.0115619360376</v>
       </c>
       <c r="M34" t="n">
-        <v>906.9801376813537</v>
+        <v>242.5966453045073</v>
       </c>
       <c r="N34" t="n">
-        <v>1009.068033513038</v>
+        <v>344.6845411361912</v>
       </c>
       <c r="O34" t="n">
-        <v>1091.804355324184</v>
+        <v>427.420862947338</v>
       </c>
       <c r="P34" t="n">
-        <v>1147.507174172677</v>
+        <v>483.1236817958302</v>
       </c>
       <c r="Q34" t="n">
-        <v>1120.057548988583</v>
+        <v>483.1236817958302</v>
       </c>
       <c r="R34" t="n">
-        <v>1120.057548988583</v>
+        <v>483.1236817958302</v>
       </c>
       <c r="S34" t="n">
-        <v>953.3608987688557</v>
+        <v>483.1236817958302</v>
       </c>
       <c r="T34" t="n">
-        <v>953.3608987688557</v>
+        <v>483.1236817958302</v>
       </c>
       <c r="U34" t="n">
-        <v>953.3608987688557</v>
+        <v>316.6103107214296</v>
       </c>
       <c r="V34" t="n">
-        <v>953.3608987688557</v>
+        <v>316.6103107214296</v>
       </c>
       <c r="W34" t="n">
-        <v>784.771575868195</v>
+        <v>316.6103107214296</v>
       </c>
       <c r="X34" t="n">
-        <v>784.771575868195</v>
+        <v>148.2035015602224</v>
       </c>
       <c r="Y34" t="n">
-        <v>784.771575868195</v>
+        <v>148.2035015602224</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>385.3593965439435</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C35" t="n">
-        <v>141.9106198998435</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D35" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E35" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F35" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G35" t="n">
         <v>19.28114311021272</v>
@@ -6962,25 +6962,25 @@
         <v>872.2569498321436</v>
       </c>
       <c r="S35" t="n">
-        <v>872.2569498321436</v>
+        <v>720.7083081485039</v>
       </c>
       <c r="T35" t="n">
-        <v>872.2569498321436</v>
+        <v>720.7083081485039</v>
       </c>
       <c r="U35" t="n">
-        <v>872.2569498321436</v>
+        <v>526.4065519986104</v>
       </c>
       <c r="V35" t="n">
-        <v>872.2569498321436</v>
+        <v>526.4065519986104</v>
       </c>
       <c r="W35" t="n">
-        <v>872.2569498321436</v>
+        <v>526.4065519986104</v>
       </c>
       <c r="X35" t="n">
-        <v>872.2569498321436</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y35" t="n">
-        <v>628.8081731880436</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="36">
@@ -6990,25 +6990,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>410.1096280839213</v>
+        <v>369.5390375573816</v>
       </c>
       <c r="C36" t="n">
-        <v>295.2393405396043</v>
+        <v>369.5390375573816</v>
       </c>
       <c r="D36" t="n">
-        <v>205.8876726151631</v>
+        <v>369.5390375573816</v>
       </c>
       <c r="E36" t="n">
-        <v>106.2329593465177</v>
+        <v>269.8843242887361</v>
       </c>
       <c r="F36" t="n">
-        <v>19.28114311021272</v>
+        <v>182.9325080524312</v>
       </c>
       <c r="G36" t="n">
-        <v>19.28114311021272</v>
+        <v>103.7844243718567</v>
       </c>
       <c r="H36" t="n">
-        <v>19.28114311021272</v>
+        <v>49.99803051624616</v>
       </c>
       <c r="I36" t="n">
         <v>19.28114311021272</v>
@@ -7017,49 +7017,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>65.60123993063803</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>304.2053859195205</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N36" t="n">
-        <v>542.809531908403</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O36" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P36" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>922.470367800332</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>809.523633299747</v>
+        <v>850.2225526981151</v>
       </c>
       <c r="T36" t="n">
-        <v>666.9197803953231</v>
+        <v>707.6186997936912</v>
       </c>
       <c r="U36" t="n">
-        <v>666.9197803953231</v>
+        <v>672.8262478320311</v>
       </c>
       <c r="V36" t="n">
-        <v>666.9197803953231</v>
+        <v>672.8262478320311</v>
       </c>
       <c r="W36" t="n">
-        <v>666.9197803953231</v>
+        <v>478.1716328406395</v>
       </c>
       <c r="X36" t="n">
-        <v>666.9197803953231</v>
+        <v>478.1716328406395</v>
       </c>
       <c r="Y36" t="n">
-        <v>518.7422233671792</v>
+        <v>478.1716328406395</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>594.4175148737851</v>
+        <v>313.3797300703051</v>
       </c>
       <c r="C37" t="n">
-        <v>594.4175148737851</v>
+        <v>204.0262888792083</v>
       </c>
       <c r="D37" t="n">
-        <v>503.8836171982595</v>
+        <v>204.0262888792083</v>
       </c>
       <c r="E37" t="n">
-        <v>503.8836171982595</v>
+        <v>204.0262888792083</v>
       </c>
       <c r="F37" t="n">
-        <v>503.8836171982595</v>
+        <v>116.719083118108</v>
       </c>
       <c r="G37" t="n">
-        <v>503.8836171982595</v>
+        <v>116.719083118108</v>
       </c>
       <c r="H37" t="n">
-        <v>503.8836171982595</v>
+        <v>116.719083118108</v>
       </c>
       <c r="I37" t="n">
-        <v>503.8836171982595</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J37" t="n">
-        <v>503.8836171982595</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K37" t="n">
-        <v>540.233865466883</v>
+        <v>55.63139137883626</v>
       </c>
       <c r="L37" t="n">
-        <v>625.9450356508436</v>
+        <v>141.3425615627968</v>
       </c>
       <c r="M37" t="n">
-        <v>723.5301190193134</v>
+        <v>238.9276449312665</v>
       </c>
       <c r="N37" t="n">
-        <v>825.6180148509973</v>
+        <v>341.0155407629504</v>
       </c>
       <c r="O37" t="n">
-        <v>908.3543366621441</v>
+        <v>423.7518625740972</v>
       </c>
       <c r="P37" t="n">
-        <v>964.0571555106362</v>
+        <v>479.4546814225894</v>
       </c>
       <c r="Q37" t="n">
-        <v>936.6075303265429</v>
+        <v>479.4546814225894</v>
       </c>
       <c r="R37" t="n">
-        <v>936.6075303265429</v>
+        <v>479.4546814225894</v>
       </c>
       <c r="S37" t="n">
-        <v>936.6075303265429</v>
+        <v>479.4546814225894</v>
       </c>
       <c r="T37" t="n">
-        <v>789.5192613428619</v>
+        <v>435.4454531637347</v>
       </c>
       <c r="U37" t="n">
-        <v>789.5192613428619</v>
+        <v>435.4454531637347</v>
       </c>
       <c r="V37" t="n">
-        <v>594.4175148737851</v>
+        <v>435.4454531637347</v>
       </c>
       <c r="W37" t="n">
-        <v>594.4175148737851</v>
+        <v>435.4454531637347</v>
       </c>
       <c r="X37" t="n">
-        <v>594.4175148737851</v>
+        <v>435.4454531637347</v>
       </c>
       <c r="Y37" t="n">
-        <v>594.4175148737851</v>
+        <v>435.4454531637347</v>
       </c>
     </row>
     <row r="38">
@@ -7148,13 +7148,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>19.28114311021272</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C38" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D38" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E38" t="n">
         <v>19.28114311021272</v>
@@ -7196,28 +7196,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>871.5028171793579</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S38" t="n">
-        <v>719.2000428429324</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T38" t="n">
-        <v>552.6793089328846</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U38" t="n">
-        <v>357.6234201302054</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V38" t="n">
-        <v>114.1746434861054</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W38" t="n">
-        <v>114.1746434861054</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X38" t="n">
-        <v>114.1746434861054</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y38" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="39">
@@ -7227,16 +7227,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>344.2385324506272</v>
+        <v>547.5689015368205</v>
       </c>
       <c r="C39" t="n">
-        <v>344.2385324506272</v>
+        <v>431.9444813397178</v>
       </c>
       <c r="D39" t="n">
-        <v>254.1327318734003</v>
+        <v>341.8386807624909</v>
       </c>
       <c r="E39" t="n">
-        <v>153.7238859519692</v>
+        <v>241.4298348410598</v>
       </c>
       <c r="F39" t="n">
         <v>153.7238859519692</v>
@@ -7254,16 +7254,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>65.60123993063803</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M39" t="n">
-        <v>304.2053859195205</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N39" t="n">
-        <v>542.809531908403</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O39" t="n">
         <v>781.4136778972854</v>
@@ -7275,28 +7275,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>921.7162351475463</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>807.1274996822395</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>778.8804492153188</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U39" t="n">
-        <v>778.8804492153188</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V39" t="n">
-        <v>602.5569500676004</v>
+        <v>787.7336563629178</v>
       </c>
       <c r="W39" t="n">
-        <v>602.5569500676004</v>
+        <v>696.5917926583289</v>
       </c>
       <c r="X39" t="n">
-        <v>602.5569500676004</v>
+        <v>547.5689015368205</v>
       </c>
       <c r="Y39" t="n">
-        <v>453.6252603866708</v>
+        <v>547.5689015368205</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>208.761246099205</v>
+        <v>768.4026148012439</v>
       </c>
       <c r="C40" t="n">
-        <v>208.761246099205</v>
+        <v>658.2950409573614</v>
       </c>
       <c r="D40" t="n">
-        <v>117.4732157708937</v>
+        <v>613.3555914078025</v>
       </c>
       <c r="E40" t="n">
-        <v>117.4732157708937</v>
+        <v>613.3555914078025</v>
       </c>
       <c r="F40" t="n">
-        <v>117.4732157708937</v>
+        <v>613.3555914078025</v>
       </c>
       <c r="G40" t="n">
-        <v>117.4732157708937</v>
+        <v>613.3555914078025</v>
       </c>
       <c r="H40" t="n">
-        <v>117.4732157708937</v>
+        <v>508.3183696762314</v>
       </c>
       <c r="I40" t="n">
-        <v>19.28114311021272</v>
+        <v>508.3183696762314</v>
       </c>
       <c r="J40" t="n">
-        <v>19.28114311021272</v>
+        <v>508.3183696762314</v>
       </c>
       <c r="K40" t="n">
-        <v>54.89226596584098</v>
+        <v>543.9294925318596</v>
       </c>
       <c r="L40" t="n">
-        <v>139.8643107368062</v>
+        <v>628.9015373028249</v>
       </c>
       <c r="M40" t="n">
-        <v>236.7102686922807</v>
+        <v>725.7474952582993</v>
       </c>
       <c r="N40" t="n">
-        <v>338.0590391109693</v>
+        <v>827.0962656769879</v>
       </c>
       <c r="O40" t="n">
-        <v>420.0562355091208</v>
+        <v>909.0934620751394</v>
       </c>
       <c r="P40" t="n">
-        <v>475.0199289446177</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q40" t="n">
-        <v>475.0199289446177</v>
+        <v>935.8533976737572</v>
       </c>
       <c r="R40" t="n">
-        <v>370.7252161587107</v>
+        <v>935.8533976737572</v>
       </c>
       <c r="S40" t="n">
-        <v>370.7252161587107</v>
+        <v>768.4026148012439</v>
       </c>
       <c r="T40" t="n">
-        <v>370.7252161587107</v>
+        <v>768.4026148012439</v>
       </c>
       <c r="U40" t="n">
-        <v>370.7252161587107</v>
+        <v>768.4026148012439</v>
       </c>
       <c r="V40" t="n">
-        <v>370.7252161587107</v>
+        <v>768.4026148012439</v>
       </c>
       <c r="W40" t="n">
-        <v>370.7252161587107</v>
+        <v>768.4026148012439</v>
       </c>
       <c r="X40" t="n">
-        <v>370.7252161587107</v>
+        <v>768.4026148012439</v>
       </c>
       <c r="Y40" t="n">
-        <v>208.761246099205</v>
+        <v>768.4026148012439</v>
       </c>
     </row>
     <row r="41">
@@ -7385,16 +7385,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>797.5364216005885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C41" t="n">
-        <v>554.0876449564885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D41" t="n">
-        <v>310.6388683123884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E41" t="n">
-        <v>67.19009166828835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F41" t="n">
         <v>19.28114311021272</v>
@@ -7439,22 +7439,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T41" t="n">
-        <v>797.5364216005885</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U41" t="n">
-        <v>797.5364216005885</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V41" t="n">
-        <v>797.5364216005885</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W41" t="n">
-        <v>797.5364216005885</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X41" t="n">
-        <v>797.5364216005885</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y41" t="n">
-        <v>797.5364216005885</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="42">
@@ -7464,16 +7464,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>388.5252750969816</v>
+        <v>494.3745049454433</v>
       </c>
       <c r="C42" t="n">
-        <v>272.9008548998789</v>
+        <v>378.7500847483407</v>
       </c>
       <c r="D42" t="n">
-        <v>272.9008548998789</v>
+        <v>288.6442841711138</v>
       </c>
       <c r="E42" t="n">
-        <v>272.9008548998789</v>
+        <v>188.2354382496827</v>
       </c>
       <c r="F42" t="n">
         <v>185.1949060107883</v>
@@ -7494,10 +7494,10 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L42" t="n">
-        <v>234.810827406191</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M42" t="n">
-        <v>473.4149733950735</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N42" t="n">
         <v>712.019119383956</v>
@@ -7527,13 +7527,13 @@
         <v>494.3745049454433</v>
       </c>
       <c r="W42" t="n">
-        <v>388.5252750969816</v>
+        <v>494.3745049454433</v>
       </c>
       <c r="X42" t="n">
-        <v>388.5252750969816</v>
+        <v>494.3745049454433</v>
       </c>
       <c r="Y42" t="n">
-        <v>388.5252750969816</v>
+        <v>494.3745049454433</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>733.6746238305284</v>
+        <v>82.46739793217569</v>
       </c>
       <c r="C43" t="n">
-        <v>733.6746238305284</v>
+        <v>82.46739793217569</v>
       </c>
       <c r="D43" t="n">
-        <v>733.6746238305284</v>
+        <v>82.46739793217569</v>
       </c>
       <c r="E43" t="n">
-        <v>644.5901393321597</v>
+        <v>82.46739793217569</v>
       </c>
       <c r="F43" t="n">
-        <v>556.5288009182736</v>
+        <v>82.46739793217569</v>
       </c>
       <c r="G43" t="n">
-        <v>543.7919627302604</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H43" t="n">
-        <v>543.7919627302604</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I43" t="n">
-        <v>543.7919627302604</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J43" t="n">
-        <v>508.3183696762314</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K43" t="n">
-        <v>543.9294925318596</v>
+        <v>54.89226596584098</v>
       </c>
       <c r="L43" t="n">
-        <v>628.9015373028249</v>
+        <v>139.8643107368062</v>
       </c>
       <c r="M43" t="n">
-        <v>725.7474952582993</v>
+        <v>236.7102686922807</v>
       </c>
       <c r="N43" t="n">
-        <v>827.0962656769879</v>
+        <v>338.0590391109693</v>
       </c>
       <c r="O43" t="n">
-        <v>909.0934620751394</v>
+        <v>420.0562355091208</v>
       </c>
       <c r="P43" t="n">
-        <v>964.0571555106362</v>
+        <v>475.0199289446177</v>
       </c>
       <c r="Q43" t="n">
-        <v>964.0571555106362</v>
+        <v>475.0199289446177</v>
       </c>
       <c r="R43" t="n">
-        <v>964.0571555106362</v>
+        <v>475.0199289446177</v>
       </c>
       <c r="S43" t="n">
-        <v>964.0571555106362</v>
+        <v>475.0199289446177</v>
       </c>
       <c r="T43" t="n">
-        <v>964.0571555106362</v>
+        <v>475.0199289446177</v>
       </c>
       <c r="U43" t="n">
-        <v>733.6746238305284</v>
+        <v>475.0199289446177</v>
       </c>
       <c r="V43" t="n">
-        <v>733.6746238305284</v>
+        <v>475.0199289446177</v>
       </c>
       <c r="W43" t="n">
-        <v>733.6746238305284</v>
+        <v>244.4313679916814</v>
       </c>
       <c r="X43" t="n">
-        <v>733.6746238305284</v>
+        <v>244.4313679916814</v>
       </c>
       <c r="Y43" t="n">
-        <v>733.6746238305284</v>
+        <v>82.46739793217569</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>477.1596022224361</v>
+        <v>82.32787816303323</v>
       </c>
       <c r="C44" t="n">
-        <v>262.7299197543128</v>
+        <v>82.32787816303323</v>
       </c>
       <c r="D44" t="n">
-        <v>262.7299197543128</v>
+        <v>82.32787816303323</v>
       </c>
       <c r="E44" t="n">
-        <v>262.7299197543128</v>
+        <v>82.32787816303323</v>
       </c>
       <c r="F44" t="n">
-        <v>262.7299197543128</v>
+        <v>82.32787816303323</v>
       </c>
       <c r="G44" t="n">
         <v>19.28114311021272</v>
@@ -7670,28 +7670,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R44" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S44" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T44" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U44" t="n">
-        <v>964.0571555106362</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="V44" t="n">
-        <v>964.0571555106362</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="W44" t="n">
-        <v>964.0571555106362</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="X44" t="n">
-        <v>964.0571555106362</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="Y44" t="n">
-        <v>720.6083788665362</v>
+        <v>82.32787816303323</v>
       </c>
     </row>
     <row r="45">
@@ -7701,25 +7701,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>512.8480801015824</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="C45" t="n">
-        <v>512.8480801015824</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="D45" t="n">
-        <v>512.8480801015824</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="E45" t="n">
-        <v>395.6002882963414</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="F45" t="n">
-        <v>249.0657303232264</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="G45" t="n">
-        <v>110.334904905842</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H45" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I45" t="n">
         <v>20.03527576299844</v>
@@ -7734,13 +7734,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M45" t="n">
-        <v>374.6018090363993</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N45" t="n">
-        <v>473.4149733950735</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O45" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P45" t="n">
         <v>894.6625969973069</v>
@@ -7755,22 +7755,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T45" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U45" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V45" t="n">
-        <v>964.0571555106362</v>
+        <v>723.4355136224365</v>
       </c>
       <c r="W45" t="n">
-        <v>720.6083788665362</v>
+        <v>479.9867369783365</v>
       </c>
       <c r="X45" t="n">
-        <v>720.6083788665362</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="Y45" t="n">
-        <v>512.8480801015824</v>
+        <v>272.1352367728036</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C46" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D46" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E46" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F46" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G46" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H46" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I46" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J46" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K46" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L46" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M46" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N46" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O46" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P46" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q46" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R46" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S46" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T46" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U46" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V46" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W46" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X46" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y46" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
   </sheetData>
@@ -7988,13 +7988,13 @@
         <v>255.9665244219036</v>
       </c>
       <c r="N2" t="n">
-        <v>255.0333547912217</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O2" t="n">
         <v>255.7185026163176</v>
       </c>
       <c r="P2" t="n">
-        <v>231.2329957552695</v>
+        <v>256.8532869499004</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8058,25 +8058,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>162.4265668883987</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>164.174670974505</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>142.1340339220183</v>
+        <v>166.719161836058</v>
       </c>
       <c r="N3" t="n">
-        <v>131.3417120833333</v>
+        <v>156.9620032779641</v>
       </c>
       <c r="O3" t="n">
         <v>168.2165356390753</v>
       </c>
       <c r="P3" t="n">
-        <v>159.5946986089611</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>165.6020652806523</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8219,16 +8219,16 @@
         <v>245.7101422396114</v>
       </c>
       <c r="L5" t="n">
-        <v>261.3867061646181</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M5" t="n">
         <v>230.3462332272727</v>
       </c>
       <c r="N5" t="n">
-        <v>229.4130635965909</v>
+        <v>253.9981915106306</v>
       </c>
       <c r="O5" t="n">
-        <v>254.6833393357264</v>
+        <v>255.7185026163176</v>
       </c>
       <c r="P5" t="n">
         <v>256.8532869499004</v>
@@ -8295,10 +8295,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>162.4265668883987</v>
+        <v>163.4617301689898</v>
       </c>
       <c r="L6" t="n">
-        <v>138.5543797798742</v>
+        <v>163.1395076939139</v>
       </c>
       <c r="M6" t="n">
         <v>142.1340339220183</v>
@@ -8313,7 +8313,7 @@
         <v>159.5946986089611</v>
       </c>
       <c r="Q6" t="n">
-        <v>165.6020652806523</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8453,19 +8453,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>247.6798763052967</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L8" t="n">
-        <v>263.3564402303034</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M8" t="n">
-        <v>256.8215099922226</v>
+        <v>257.9362584875889</v>
       </c>
       <c r="N8" t="n">
-        <v>229.4130635965909</v>
+        <v>257.0030888569071</v>
       </c>
       <c r="O8" t="n">
-        <v>230.0982114216867</v>
+        <v>256.5734881866366</v>
       </c>
       <c r="P8" t="n">
         <v>258.8230210155857</v>
@@ -8535,22 +8535,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>166.1444050401903</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
         <v>169.7240591823345</v>
       </c>
       <c r="N9" t="n">
-        <v>158.9317373436494</v>
+        <v>157.8169888482831</v>
       </c>
       <c r="O9" t="n">
-        <v>169.0715212093943</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>161.5644326746464</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>167.5717993463377</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8778,13 +8778,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N12" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133072</v>
       </c>
       <c r="O12" t="n">
-        <v>185.8815939223662</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -9006,16 +9006,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>383.1483227996774</v>
+        <v>368.5691090902119</v>
       </c>
       <c r="N15" t="n">
-        <v>231.1529892133072</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O15" t="n">
         <v>142.5962444444444</v>
@@ -9243,16 +9243,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>368.5691090902119</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O18" t="n">
         <v>383.6105333221035</v>
@@ -9261,7 +9261,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9486,19 +9486,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>231.1529892133073</v>
+        <v>301.2485028631349</v>
       </c>
       <c r="O21" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9720,22 +9720,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>383.3226627083933</v>
       </c>
       <c r="N24" t="n">
-        <v>301.764478552567</v>
+        <v>372.5303408697083</v>
       </c>
       <c r="O24" t="n">
-        <v>383.7848732308194</v>
+        <v>383.7848732308195</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>168.6987294101783</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9954,19 +9954,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>356.6027673747097</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>383.3226627083933</v>
+        <v>233.5586234786343</v>
       </c>
       <c r="N27" t="n">
         <v>372.5303408697083</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>383.7848732308194</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
@@ -10191,16 +10191,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>194.1540947956784</v>
       </c>
       <c r="L30" t="n">
-        <v>194.8670356011934</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
         <v>429.0108274651876</v>
       </c>
       <c r="N30" t="n">
-        <v>418.2185056265025</v>
+        <v>418.2185056265026</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10428,25 +10428,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>216.4520041475276</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>429.0108274651874</v>
+        <v>429.0108274651875</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>418.2185056265025</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>194.3569735385325</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10665,25 +10665,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>185.3423563661624</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>372.3560009609923</v>
+        <v>174.6270615612551</v>
       </c>
       <c r="O36" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10902,10 +10902,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>185.3423563661624</v>
+        <v>299.7328472056018</v>
       </c>
       <c r="M39" t="n">
         <v>383.1483227996774</v>
@@ -10914,7 +10914,7 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
@@ -11063,7 +11063,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
         <v>449.5135334928325</v>
@@ -11142,13 +11142,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>356.2611315939937</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N42" t="n">
-        <v>372.3560009609923</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O42" t="n">
         <v>142.5962444444444</v>
@@ -11382,16 +11382,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N45" t="n">
-        <v>231.1529892133073</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O45" t="n">
-        <v>383.6105333221035</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23261,7 +23261,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -23306,22 +23306,22 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
-        <v>10.33136403017744</v>
+        <v>39.0602672643945</v>
       </c>
       <c r="V11" t="n">
-        <v>306.5685030994106</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23340,7 +23340,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>95.56758059204338</v>
+        <v>80.49467379535915</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -23391,13 +23391,13 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
@@ -23434,13 +23434,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>115.622687458563</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23504,16 +23504,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G14" t="n">
-        <v>415.302737515135</v>
+        <v>413.4932414420988</v>
       </c>
       <c r="H14" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I14" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>11.94928935461252</v>
@@ -23537,25 +23537,25 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>138.6760617849701</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -23671,13 +23671,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23692,13 +23692,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
@@ -23741,19 +23741,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>185.9922493601736</v>
       </c>
       <c r="G17" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H17" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23777,19 +23777,19 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V17" t="n">
-        <v>225.414031377446</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23811,25 +23811,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>27.26179070270013</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>85.5626750829564</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23856,19 +23856,19 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>251.6949831609196</v>
@@ -23938,10 +23938,10 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T19" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
         <v>286.3190293564909</v>
@@ -23966,13 +23966,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C20" t="n">
         <v>124.2586028933485</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>142.3976559772408</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -24023,19 +24023,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
-        <v>115.4668728266928</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="21">
@@ -24057,19 +24057,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>47.24553303180052</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24093,10 +24093,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>94.86289466821563</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
         <v>200.1647286948216</v>
@@ -24108,10 +24108,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24130,7 +24130,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>15.42850543284436</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24175,7 +24175,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S22" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T22" t="n">
         <v>227.9455894282815</v>
@@ -24203,10 +24203,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>346.3624538199442</v>
+        <v>140.7986215508477</v>
       </c>
       <c r="C23" t="n">
-        <v>123.3376716583747</v>
+        <v>364.5263004447497</v>
       </c>
       <c r="D23" t="n">
         <v>353.9364502944251</v>
@@ -24218,13 +24218,13 @@
         <v>406.1294544154536</v>
       </c>
       <c r="G23" t="n">
-        <v>414.5561461888772</v>
+        <v>173.3675174025022</v>
       </c>
       <c r="H23" t="n">
         <v>338.7282107895093</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>209.7292982441481</v>
       </c>
       <c r="J23" t="n">
         <v>11.20269802835466</v>
@@ -24254,10 +24254,10 @@
         <v>149.1225266148918</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>208.2734782599875</v>
       </c>
       <c r="T23" t="n">
-        <v>222.3492582378735</v>
+        <v>9.910314002834355</v>
       </c>
       <c r="U23" t="n">
         <v>250.5990615815786</v>
@@ -24282,7 +24282,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>165.7865923236095</v>
       </c>
       <c r="C24" t="n">
         <v>171.9619076620579</v>
@@ -24297,10 +24297,10 @@
         <v>144.322621067126</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>136.5969258369528</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>111.4888529102386</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -24330,28 +24330,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>27.76341840836903</v>
+        <v>99.41124282638528</v>
       </c>
       <c r="S24" t="n">
         <v>170.93657977758</v>
       </c>
       <c r="T24" t="n">
-        <v>199.4181373685637</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>225.194790754717</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.0539958231674</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>250.9483918346617</v>
+        <v>217.1590158412461</v>
       </c>
       <c r="X24" t="n">
         <v>205.0263938772196</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>204.9361044510465</v>
       </c>
     </row>
     <row r="25">
@@ -24403,13 +24403,13 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>1.974849408848655</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
         <v>85.41545192543653</v>
       </c>
       <c r="R25" t="n">
-        <v>176.5468000509116</v>
+        <v>42.40774523893097</v>
       </c>
       <c r="S25" t="n">
         <v>223.2700067107144</v>
@@ -24418,7 +24418,7 @@
         <v>227.1989981020236</v>
       </c>
       <c r="U25" t="n">
-        <v>149.4585338094036</v>
+        <v>285.572438030233</v>
       </c>
       <c r="V25" t="n">
         <v>251.3910519975701</v>
@@ -24440,13 +24440,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>381.9872503372227</v>
+        <v>140.7986215508477</v>
       </c>
       <c r="C26" t="n">
-        <v>161.3314640979976</v>
+        <v>123.3376716583747</v>
       </c>
       <c r="D26" t="n">
-        <v>353.9364502944251</v>
+        <v>112.7478215080501</v>
       </c>
       <c r="E26" t="n">
         <v>381.1837787460039</v>
@@ -24485,7 +24485,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.244107888286948</v>
       </c>
       <c r="R26" t="n">
         <v>149.1225266148918</v>
@@ -24503,13 +24503,13 @@
         <v>327.0056671438771</v>
       </c>
       <c r="W26" t="n">
-        <v>107.3057486047801</v>
+        <v>348.4943773911551</v>
       </c>
       <c r="X26" t="n">
-        <v>127.7958805658362</v>
+        <v>368.9845093522111</v>
       </c>
       <c r="Y26" t="n">
-        <v>144.3027185434208</v>
+        <v>173.0524030947567</v>
       </c>
     </row>
     <row r="27">
@@ -24519,19 +24519,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>165.7865923236095</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>171.9619076620579</v>
       </c>
       <c r="D27" t="n">
         <v>146.6984742383809</v>
       </c>
       <c r="E27" t="n">
-        <v>149.089512825194</v>
+        <v>156.8984891291431</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>144.322621067126</v>
       </c>
       <c r="G27" t="n">
         <v>136.5969258369528</v>
@@ -24540,7 +24540,7 @@
         <v>111.4888529102386</v>
       </c>
       <c r="I27" t="n">
-        <v>88.65004152515722</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24567,28 +24567,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>99.41124282638528</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>170.93657977758</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>199.4181373685637</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>225.194790754717</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.0539958231674</v>
+        <v>79.65995748140671</v>
       </c>
       <c r="W27" t="n">
-        <v>9.759763048286771</v>
+        <v>250.9483918346617</v>
       </c>
       <c r="X27" t="n">
         <v>205.0263938772196</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>204.9361044510465</v>
       </c>
     </row>
     <row r="28">
@@ -24601,7 +24601,7 @@
         <v>179.0853888556794</v>
       </c>
       <c r="C28" t="n">
-        <v>30.38632555154066</v>
+        <v>166.50022977237</v>
       </c>
       <c r="D28" t="n">
         <v>147.8688816919545</v>
@@ -24649,7 +24649,7 @@
         <v>176.5468000509116</v>
       </c>
       <c r="S28" t="n">
-        <v>223.2700067107144</v>
+        <v>87.15610248988509</v>
       </c>
       <c r="T28" t="n">
         <v>227.1989981020236</v>
@@ -24677,7 +24677,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>36.87013380086933</v>
+        <v>323.7469273440386</v>
       </c>
       <c r="C29" t="n">
         <v>306.2859774515656</v>
@@ -24689,16 +24689,16 @@
         <v>322.9434557528198</v>
       </c>
       <c r="F29" t="n">
-        <v>61.01233787910019</v>
+        <v>347.8891314222694</v>
       </c>
       <c r="G29" t="n">
         <v>356.315823195693</v>
       </c>
       <c r="H29" t="n">
-        <v>280.4878877963251</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>62.91683074282977</v>
+        <v>151.4889752509639</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24734,16 +24734,16 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>192.3587385883945</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>268.765344150693</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>290.254054397971</v>
+        <v>82.66349979574153</v>
       </c>
       <c r="X29" t="n">
-        <v>23.86739281585778</v>
+        <v>310.744186359027</v>
       </c>
       <c r="Y29" t="n">
         <v>327.2510243366116</v>
@@ -24756,28 +24756,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>107.5462693304254</v>
       </c>
       <c r="C30" t="n">
-        <v>113.7215846688738</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>98.65816613595896</v>
+        <v>8.966536360107028</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>86.0822980739419</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>78.35660284376866</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>53.24852991705448</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>30.4097185319731</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24807,10 +24807,10 @@
         <v>41.17091983320115</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>112.6962567843958</v>
       </c>
       <c r="T30" t="n">
-        <v>141.1778143753796</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -24822,10 +24822,10 @@
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>146.7860708840355</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>123.6583572352812</v>
+        <v>146.6957814578624</v>
       </c>
     </row>
     <row r="31">
@@ -24835,16 +24835,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>120.8450658624953</v>
       </c>
       <c r="C31" t="n">
         <v>108.2599067791859</v>
       </c>
       <c r="D31" t="n">
-        <v>89.62855869877038</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>87.44704832712719</v>
       </c>
       <c r="F31" t="n">
         <v>86.43413370348927</v>
@@ -24856,10 +24856,10 @@
         <v>103.2402581879976</v>
       </c>
       <c r="I31" t="n">
-        <v>96.46356060781631</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>34.3722657972308</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>118.3064770577275</v>
       </c>
       <c r="S31" t="n">
-        <v>165.0296837175303</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>168.9586751088395</v>
@@ -24895,16 +24895,16 @@
         <v>227.3321150370489</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>193.150729004386</v>
       </c>
       <c r="W31" t="n">
         <v>227.536084017149</v>
       </c>
       <c r="X31" t="n">
-        <v>112.5937813343509</v>
+        <v>166.7227410695952</v>
       </c>
       <c r="Y31" t="n">
-        <v>159.5977390326528</v>
+        <v>89.52000492474757</v>
       </c>
     </row>
     <row r="32">
@@ -24914,25 +24914,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>36.87013380086944</v>
+        <v>323.7469273440386</v>
       </c>
       <c r="C32" t="n">
-        <v>306.2859774515656</v>
+        <v>19.40918390839641</v>
       </c>
       <c r="D32" t="n">
-        <v>295.6961273012409</v>
+        <v>8.819333758071764</v>
       </c>
       <c r="E32" t="n">
-        <v>322.9434557528198</v>
+        <v>36.06666220965059</v>
       </c>
       <c r="F32" t="n">
-        <v>347.8891314222694</v>
+        <v>95.20805166944601</v>
       </c>
       <c r="G32" t="n">
         <v>356.315823195693</v>
       </c>
       <c r="H32" t="n">
-        <v>268.7221669320128</v>
+        <v>280.4878877963251</v>
       </c>
       <c r="I32" t="n">
         <v>151.4889752509639</v>
@@ -24962,10 +24962,10 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>90.8822036217077</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>150.0331552668034</v>
       </c>
       <c r="T32" t="n">
         <v>164.1089352446894</v>
@@ -24977,10 +24977,10 @@
         <v>268.765344150693</v>
       </c>
       <c r="W32" t="n">
-        <v>3.377260854801875</v>
+        <v>290.254054397971</v>
       </c>
       <c r="X32" t="n">
-        <v>23.8673928158579</v>
+        <v>310.744186359027</v>
       </c>
       <c r="Y32" t="n">
         <v>327.2510243366116</v>
@@ -25002,13 +25002,13 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>98.65816613595896</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>36.21239762876939</v>
+        <v>78.35660284376866</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -25047,7 +25047,7 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>51.90569749051919</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -25056,7 +25056,7 @@
         <v>173.8136728299833</v>
       </c>
       <c r="W33" t="n">
-        <v>192.7080688414776</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -25078,7 +25078,7 @@
         <v>108.2599067791859</v>
       </c>
       <c r="D34" t="n">
-        <v>89.62855869877038</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>87.44704832712719</v>
@@ -25093,10 +25093,10 @@
         <v>103.2402581879976</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.46356060781631</v>
       </c>
       <c r="J34" t="n">
-        <v>34.3722657972308</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25117,28 +25117,28 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>27.17512893225241</v>
       </c>
       <c r="R34" t="n">
         <v>118.3064770577275</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>165.0296837175303</v>
       </c>
       <c r="T34" t="n">
         <v>168.9586751088395</v>
       </c>
       <c r="U34" t="n">
-        <v>227.3321150370489</v>
+        <v>62.48387767339239</v>
       </c>
       <c r="V34" t="n">
         <v>193.150729004386</v>
       </c>
       <c r="W34" t="n">
-        <v>60.63265434549493</v>
+        <v>227.536084017149</v>
       </c>
       <c r="X34" t="n">
-        <v>166.7227410695952</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>159.5977390326528</v>
@@ -25151,22 +25151,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>82.73263846637951</v>
+        <v>323.7469273440386</v>
       </c>
       <c r="C35" t="n">
-        <v>65.27168857390654</v>
+        <v>306.2859774515656</v>
       </c>
       <c r="D35" t="n">
-        <v>174.2929452795065</v>
+        <v>295.6961273012409</v>
       </c>
       <c r="E35" t="n">
         <v>322.9434557528198</v>
       </c>
       <c r="F35" t="n">
-        <v>347.8891314222694</v>
+        <v>106.8748425446104</v>
       </c>
       <c r="G35" t="n">
-        <v>356.315823195693</v>
+        <v>115.301534318034</v>
       </c>
       <c r="H35" t="n">
         <v>280.4878877963251</v>
@@ -25202,13 +25202,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>150.0331552668034</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>164.1089352446894</v>
       </c>
       <c r="U35" t="n">
-        <v>192.3587385883945</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>268.765344150693</v>
@@ -25217,10 +25217,10 @@
         <v>290.254054397971</v>
       </c>
       <c r="X35" t="n">
-        <v>310.744186359027</v>
+        <v>290.7186093148314</v>
       </c>
       <c r="Y35" t="n">
-        <v>86.23673545895258</v>
+        <v>327.2510243366116</v>
       </c>
     </row>
     <row r="36">
@@ -25233,10 +25233,10 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>113.7215846688738</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>88.45815124519677</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -25245,13 +25245,13 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>78.35660284376866</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>53.24852991705448</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>30.4097185319731</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25278,28 +25278,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>41.17091983320115</v>
       </c>
       <c r="S36" t="n">
-        <v>0.8789896288166261</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>166.9544677615328</v>
+        <v>132.5099403194893</v>
       </c>
       <c r="V36" t="n">
         <v>173.8136728299833</v>
       </c>
       <c r="W36" t="n">
-        <v>192.7080688414776</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
         <v>146.7860708840355</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>146.6957814578624</v>
       </c>
     </row>
     <row r="37">
@@ -25309,19 +25309,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>120.8450658624953</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>108.2599067791859</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>89.62855869877038</v>
       </c>
       <c r="E37" t="n">
         <v>87.44704832712719</v>
       </c>
       <c r="F37" t="n">
-        <v>86.43413370348927</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>109.0040650390168</v>
@@ -25330,7 +25330,7 @@
         <v>103.2402581879976</v>
       </c>
       <c r="I37" t="n">
-        <v>96.46356060781631</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>34.3722657972308</v>
@@ -25354,7 +25354,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>27.17512893225241</v>
       </c>
       <c r="R37" t="n">
         <v>118.3064770577275</v>
@@ -25363,13 +25363,13 @@
         <v>165.0296837175303</v>
       </c>
       <c r="T37" t="n">
-        <v>23.34128881499532</v>
+        <v>125.3895391325734</v>
       </c>
       <c r="U37" t="n">
         <v>227.3321150370489</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>193.150729004386</v>
       </c>
       <c r="W37" t="n">
         <v>227.536084017149</v>
@@ -25388,16 +25388,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>324.4935186702965</v>
+        <v>112.2081330268545</v>
       </c>
       <c r="C38" t="n">
-        <v>307.0325687778234</v>
+        <v>66.01827990016437</v>
       </c>
       <c r="D38" t="n">
-        <v>296.4427186274988</v>
+        <v>55.42842974983978</v>
       </c>
       <c r="E38" t="n">
-        <v>323.6900470790777</v>
+        <v>82.6757582014186</v>
       </c>
       <c r="F38" t="n">
         <v>348.6357227485273</v>
@@ -25436,19 +25436,19 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>91.62879494796556</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>150.7797465930612</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>164.8555265709472</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>193.1053299146524</v>
       </c>
       <c r="V38" t="n">
-        <v>28.49764659929173</v>
+        <v>269.5119354769508</v>
       </c>
       <c r="W38" t="n">
         <v>291.0006457242289</v>
@@ -25457,7 +25457,7 @@
         <v>311.4907776852849</v>
       </c>
       <c r="Y38" t="n">
-        <v>234.0530502907358</v>
+        <v>327.9976156628695</v>
       </c>
     </row>
     <row r="39">
@@ -25467,10 +25467,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>108.2928606566832</v>
       </c>
       <c r="C39" t="n">
-        <v>114.4681759951316</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -25479,7 +25479,7 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>86.82888940019976</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -25515,13 +25515,13 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>41.91751115945901</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>113.4428481106537</v>
       </c>
       <c r="T39" t="n">
-        <v>113.9598257393859</v>
+        <v>141.9244057016375</v>
       </c>
       <c r="U39" t="n">
         <v>167.7010590877907</v>
@@ -25530,13 +25530,13 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>193.4546601677355</v>
+        <v>103.2242151001925</v>
       </c>
       <c r="X39" t="n">
-        <v>147.5326622102934</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>147.4423727841202</v>
       </c>
     </row>
     <row r="40">
@@ -25549,10 +25549,10 @@
         <v>121.5916571887532</v>
       </c>
       <c r="C40" t="n">
-        <v>109.0064981054437</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>45.88509497096498</v>
       </c>
       <c r="E40" t="n">
         <v>88.19363965338505</v>
@@ -25564,10 +25564,10 @@
         <v>109.7506563652746</v>
       </c>
       <c r="H40" t="n">
-        <v>103.9868495142555</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>97.21015193407416</v>
       </c>
       <c r="J40" t="n">
         <v>35.11885712348865</v>
@@ -25591,13 +25591,13 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>27.92172025851026</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>15.8013027259375</v>
+        <v>119.0530683839854</v>
       </c>
       <c r="S40" t="n">
-        <v>165.7762750437881</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>169.7052664350974</v>
@@ -25615,7 +25615,7 @@
         <v>167.469332395853</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>160.3443303589107</v>
       </c>
     </row>
     <row r="41">
@@ -25625,19 +25625,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>324.4935186702965</v>
+        <v>83.4792297926374</v>
       </c>
       <c r="C41" t="n">
-        <v>66.01827990016437</v>
+        <v>307.0325687778234</v>
       </c>
       <c r="D41" t="n">
-        <v>55.42842974983978</v>
+        <v>296.4427186274988</v>
       </c>
       <c r="E41" t="n">
-        <v>82.6757582014186</v>
+        <v>323.6900470790777</v>
       </c>
       <c r="F41" t="n">
-        <v>301.2058636760324</v>
+        <v>348.6357227485273</v>
       </c>
       <c r="G41" t="n">
         <v>357.0624145219509</v>
@@ -25679,7 +25679,7 @@
         <v>150.7797465930612</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>164.8555265709472</v>
       </c>
       <c r="U41" t="n">
         <v>193.1053299146524</v>
@@ -25688,13 +25688,13 @@
         <v>269.5119354769508</v>
       </c>
       <c r="W41" t="n">
-        <v>291.0006457242289</v>
+        <v>78.71526008078689</v>
       </c>
       <c r="X41" t="n">
-        <v>311.4907776852849</v>
+        <v>70.47648880762586</v>
       </c>
       <c r="Y41" t="n">
-        <v>327.9976156628695</v>
+        <v>86.98332678521041</v>
       </c>
     </row>
     <row r="42">
@@ -25710,13 +25710,13 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>89.20474257145463</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>99.40475746221682</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>83.81876248369433</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -25767,7 +25767,7 @@
         <v>174.5602641562411</v>
       </c>
       <c r="W42" t="n">
-        <v>88.66392261775837</v>
+        <v>193.4546601677355</v>
       </c>
       <c r="X42" t="n">
         <v>147.5326622102934</v>
@@ -25792,13 +25792,13 @@
         <v>90.37515002502823</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>88.19363965338505</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>87.18072502974712</v>
       </c>
       <c r="G43" t="n">
-        <v>97.14118655914149</v>
+        <v>47.19626409153131</v>
       </c>
       <c r="H43" t="n">
         <v>103.9868495142555</v>
@@ -25807,7 +25807,7 @@
         <v>97.21015193407416</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>35.11885712348865</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25840,19 +25840,19 @@
         <v>169.7052664350974</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>228.0787063633068</v>
       </c>
       <c r="V43" t="n">
         <v>193.8973203306439</v>
       </c>
       <c r="W43" t="n">
-        <v>228.2826753434069</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>167.469332395853</v>
       </c>
       <c r="Y43" t="n">
-        <v>160.3443303589107</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25862,10 +25862,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>152.9875061275654</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -25877,7 +25877,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>174.288448637476</v>
+        <v>352.8864698128427</v>
       </c>
       <c r="H44" t="n">
         <v>339.4748021157671</v>
@@ -25910,7 +25910,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>209.0200695862453</v>
@@ -25919,13 +25919,13 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -25950,19 +25950,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>41.56976656821244</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25995,22 +25995,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>194.7498903749292</v>
       </c>
       <c r="W45" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -26029,7 +26029,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>13.24699506120115</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26077,7 +26077,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U46" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>349235.1370411572</v>
+        <v>349235.1370411573</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>351198.8817683624</v>
+        <v>351198.8817683622</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>509717.4142880976</v>
+        <v>509717.4142880977</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>488669.5452160417</v>
+        <v>488669.545216042</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>486925.6950334172</v>
+        <v>486925.6950334173</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>349235.1370411573</v>
+        <v>349235.1370411571</v>
       </c>
     </row>
   </sheetData>
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>677359.4601380337</v>
+        <v>677359.4601380336</v>
       </c>
       <c r="C2" t="n">
-        <v>677359.4601380337</v>
+        <v>677359.4601380336</v>
       </c>
       <c r="D2" t="n">
-        <v>677359.4601380338</v>
+        <v>677359.4601380342</v>
       </c>
       <c r="E2" t="n">
         <v>274165.1096766985</v>
@@ -26329,13 +26329,13 @@
         <v>274165.1096766984</v>
       </c>
       <c r="H2" t="n">
-        <v>274165.1096766984</v>
+        <v>274165.1096766985</v>
       </c>
       <c r="I2" t="n">
         <v>275913.2945361488</v>
       </c>
       <c r="J2" t="n">
-        <v>275913.2945361487</v>
+        <v>275913.2945361488</v>
       </c>
       <c r="K2" t="n">
         <v>416439.5376744821</v>
@@ -26347,7 +26347,7 @@
         <v>398525.5277786224</v>
       </c>
       <c r="N2" t="n">
-        <v>396970.2019400656</v>
+        <v>396970.2019400657</v>
       </c>
       <c r="O2" t="n">
         <v>396970.2019400657</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>8585.948846018267</v>
+        <v>8585.948846018291</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26384,19 +26384,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>643.6337038719321</v>
+        <v>643.6337038719396</v>
       </c>
       <c r="J3" t="n">
-        <v>6703.395469327989</v>
+        <v>6703.395469327982</v>
       </c>
       <c r="K3" t="n">
-        <v>58350.92998167393</v>
+        <v>58350.92998167394</v>
       </c>
       <c r="L3" t="n">
         <v>498.5219644183335</v>
       </c>
       <c r="M3" t="n">
-        <v>41757.06057783256</v>
+        <v>41757.06057783255</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>366967.9901647724</v>
+        <v>366365.2236650808</v>
       </c>
       <c r="C4" t="n">
-        <v>366967.9901647724</v>
+        <v>366365.2236650808</v>
       </c>
       <c r="D4" t="n">
-        <v>366497.5404350043</v>
+        <v>365891.9064183813</v>
       </c>
       <c r="E4" t="n">
-        <v>42895.25425991549</v>
+        <v>42017.42535589614</v>
       </c>
       <c r="F4" t="n">
-        <v>42895.25425991549</v>
+        <v>42017.42535589614</v>
       </c>
       <c r="G4" t="n">
-        <v>42895.25425991549</v>
+        <v>42017.42535589615</v>
       </c>
       <c r="H4" t="n">
-        <v>42895.25425991549</v>
+        <v>42017.42535589615</v>
       </c>
       <c r="I4" t="n">
-        <v>44093.75044396258</v>
+        <v>43215.8447748769</v>
       </c>
       <c r="J4" t="n">
-        <v>44093.75044396258</v>
+        <v>43215.8447748769</v>
       </c>
       <c r="K4" t="n">
-        <v>138300.5311053541</v>
+        <v>137402.5080975378</v>
       </c>
       <c r="L4" t="n">
-        <v>138300.5311053541</v>
+        <v>137402.5080975378</v>
       </c>
       <c r="M4" t="n">
-        <v>129034.1339985608</v>
+        <v>128156.3050945414</v>
       </c>
       <c r="N4" t="n">
-        <v>127956.7167320603</v>
+        <v>127078.8878280409</v>
       </c>
       <c r="O4" t="n">
-        <v>127956.7167320603</v>
+        <v>127078.8878280409</v>
       </c>
       <c r="P4" t="n">
-        <v>42895.25425991549</v>
+        <v>42017.42535589614</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>266620.2074226094</v>
+        <v>267222.9739223009</v>
       </c>
       <c r="C6" t="n">
-        <v>275206.1562686278</v>
+        <v>275808.9227683193</v>
       </c>
       <c r="D6" t="n">
-        <v>274944.9876743785</v>
+        <v>275550.6216910019</v>
       </c>
       <c r="E6" t="n">
-        <v>152892.3968706823</v>
+        <v>153770.2257747017</v>
       </c>
       <c r="F6" t="n">
-        <v>216616.1866530213</v>
+        <v>217494.0155570406</v>
       </c>
       <c r="G6" t="n">
-        <v>216616.1866530212</v>
+        <v>217494.0155570406</v>
       </c>
       <c r="H6" t="n">
-        <v>216616.1866530212</v>
+        <v>217494.0155570406</v>
       </c>
       <c r="I6" t="n">
-        <v>216448.8765718955</v>
+        <v>217326.7822409812</v>
       </c>
       <c r="J6" t="n">
-        <v>210389.1148064394</v>
+        <v>211267.0204755251</v>
       </c>
       <c r="K6" t="n">
-        <v>197386.9966401082</v>
+        <v>198285.0196479245</v>
       </c>
       <c r="L6" t="n">
-        <v>255239.4046573638</v>
+        <v>256137.4276651801</v>
       </c>
       <c r="M6" t="n">
-        <v>208121.6935385462</v>
+        <v>208999.5224425656</v>
       </c>
       <c r="N6" t="n">
-        <v>249463.6107305296</v>
+        <v>250341.4396345491</v>
       </c>
       <c r="O6" t="n">
-        <v>249463.6107305297</v>
+        <v>250341.4396345491</v>
       </c>
       <c r="P6" t="n">
-        <v>216616.1866530213</v>
+        <v>217494.0155570406</v>
       </c>
     </row>
   </sheetData>
@@ -26814,10 +26814,10 @@
         <v>241.188628786375</v>
       </c>
       <c r="K4" t="n">
+        <v>286.8767935431693</v>
+      </c>
+      <c r="L4" t="n">
         <v>286.8767935431692</v>
-      </c>
-      <c r="L4" t="n">
-        <v>286.8767935431691</v>
       </c>
       <c r="M4" t="n">
         <v>241.0142888776591</v>
@@ -27030,19 +27030,19 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1743399087159219</v>
+        <v>0.1743399087159503</v>
       </c>
       <c r="J4" t="n">
-        <v>25.62029119463083</v>
+        <v>25.6202911946308</v>
       </c>
       <c r="K4" t="n">
-        <v>45.68816475679427</v>
+        <v>45.68816475679432</v>
       </c>
       <c r="L4" t="n">
         <v>1.969734065685202</v>
       </c>
       <c r="M4" t="n">
-        <v>167.5617589518329</v>
+        <v>167.5617589518328</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>357.1135504688497</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27385,13 +27385,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>356.3100788776309</v>
       </c>
       <c r="F2" t="n">
-        <v>384.3096932574806</v>
+        <v>381.2557545470806</v>
       </c>
       <c r="G2" t="n">
-        <v>389.6824463205042</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
@@ -27427,16 +27427,16 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>183.3997783916145</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>225.7253617132057</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>320.4886435010391</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27458,13 +27458,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>147.0882077936849</v>
+        <v>150.8887378303428</v>
       </c>
       <c r="D3" t="n">
         <v>121.8247743700079</v>
       </c>
       <c r="E3" t="n">
-        <v>135.0787279711701</v>
+        <v>132.0247892607701</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -27473,13 +27473,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>86.61515304186563</v>
       </c>
       <c r="I3" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27503,7 +27503,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>74.5375429580123</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
@@ -27540,22 +27540,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>122.9951818235815</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>120.8136714519383</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>144.7952682405865</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>136.6068813128088</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>129.8301837326275</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
         <v>93.35918011667277</v>
@@ -27576,10 +27576,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>85.8651825933464</v>
       </c>
       <c r="R4" t="n">
         <v>177.2933913771695</v>
@@ -27591,7 +27591,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3190293564909</v>
+        <v>260.69873816186</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>357.1135504688497</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>343.7391240261137</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>381.2557545470806</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>313.8545109211363</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>184.8555983757751</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>145.8012460882918</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
@@ -27716,7 +27716,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27740,7 +27740,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>74.5375429580123</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
@@ -27749,16 +27749,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>203.375029596744</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>226.0746919662888</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>183.9532240455045</v>
       </c>
       <c r="Y6" t="n">
         <v>180.0624045826735</v>
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>154.2116889873065</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>141.626529903997</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27816,7 +27816,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>63.59569076746356</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
         <v>177.2933913771695</v>
@@ -27828,16 +27828,16 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
-        <v>260.69873816186</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V7" t="n">
         <v>226.5173521291972</v>
       </c>
       <c r="W7" t="n">
-        <v>260.9027071419601</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>203.1433029048063</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,19 +27850,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>374.9612939798818</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>337.6828665106914</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>327.0930163603668</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>379.2860204813953</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27871,10 +27871,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>201.4773328362545</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27895,10 +27895,10 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>122.2790926808335</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
@@ -27910,7 +27910,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>300.1622332098187</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -27929,19 +27929,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>138.9431583895512</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>145.1184737279996</v>
       </c>
       <c r="D9" t="n">
-        <v>123.8903626416102</v>
+        <v>119.8550403043226</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>121.5145094703553</v>
       </c>
       <c r="G9" t="n">
         <v>137.3435171632106</v>
@@ -27950,7 +27950,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>61.80660759109894</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,7 +27977,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>72.56780889232699</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
@@ -28029,13 +28029,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>155.4504749272583</v>
+        <v>127.8604496669421</v>
       </c>
       <c r="J10" t="n">
         <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28059,7 +28059,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
-        <v>201.5678386764629</v>
+        <v>196.4265727766561</v>
       </c>
       <c r="T10" t="n">
         <v>227.9455894282815</v>
@@ -28068,16 +28068,16 @@
         <v>258.7290040961748</v>
       </c>
       <c r="V10" t="n">
-        <v>224.5476180635119</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>258.9329730762748</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>218.4053858174682</v>
       </c>
     </row>
     <row r="11">
@@ -29074,10 +29074,10 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
         <v>0.6903155981479769</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>0.7465913262578567</v>
@@ -29536,25 +29536,25 @@
         <v>58.98691431944198</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>58.98691431944198</v>
       </c>
       <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
         <v>58.98691431944198</v>
       </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
       <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
         <v>26.57623378133611</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>58.98691431944198</v>
       </c>
       <c r="R29" t="n">
         <v>58.98691431944198</v>
@@ -29770,28 +29770,28 @@
         <v>58.98691431944198</v>
       </c>
       <c r="J32" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K32" t="n">
         <v>58.98691431944198</v>
       </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>14.62694442672359</v>
       </c>
       <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
         <v>58.98691431944198</v>
       </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
       <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
         <v>58.98691431944198</v>
-      </c>
-      <c r="P32" t="n">
-        <v>16.58553456679137</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>9.990699214544788</v>
       </c>
       <c r="R32" t="n">
         <v>58.98691431944198</v>
@@ -34708,13 +34708,13 @@
         <v>25.62029119463083</v>
       </c>
       <c r="N2" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>25.62029119463083</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
         <v>24.58512791403969</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>25.62029119463083</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>25.62029119463083</v>
       </c>
       <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
         <v>25.62029119463083</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34939,16 +34939,16 @@
         <v>25.62029119463083</v>
       </c>
       <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>24.58512791403968</v>
+      </c>
+      <c r="O5" t="n">
         <v>25.62029119463083</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>24.58512791403967</v>
       </c>
       <c r="P5" t="n">
         <v>25.62029119463083</v>
@@ -35015,10 +35015,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
+        <v>25.62029119463083</v>
+      </c>
+      <c r="L6" t="n">
         <v>24.58512791403968</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35033,7 +35033,7 @@
         <v>25.62029119463083</v>
       </c>
       <c r="Q6" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35173,19 +35173,19 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="M8" t="n">
+      <c r="O8" t="n">
         <v>26.47527676494983</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>27.59002526031614</v>
@@ -35255,22 +35255,22 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>27.59002526031614</v>
       </c>
       <c r="N9" t="n">
+        <v>26.47527676494984</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="O9" t="n">
-        <v>26.47527676494983</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35498,13 +35498,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N12" t="n">
-        <v>241.0142888776591</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="O12" t="n">
-        <v>43.28534947792182</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
         <v>70.09551364982758</v>
@@ -35656,7 +35656,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N14" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O14" t="n">
         <v>150.7019698410586</v>
@@ -35726,16 +35726,16 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
+        <v>226.4350751681936</v>
+      </c>
+      <c r="N15" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N15" t="n">
-        <v>99.8112771299739</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -35963,16 +35963,16 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>226.4350751681936</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O18" t="n">
         <v>241.0142888776591</v>
@@ -35981,7 +35981,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36206,19 +36206,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>99.81127712997396</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="O21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36370,10 +36370,10 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O23" t="n">
-        <v>151.3922854392066</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P23" t="n">
-        <v>90.5657124162131</v>
+        <v>91.25602801436108</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -36440,22 +36440,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>241.188628786375</v>
       </c>
       <c r="N24" t="n">
-        <v>170.4227664692337</v>
+        <v>241.188628786375</v>
       </c>
       <c r="O24" t="n">
         <v>241.188628786375</v>
       </c>
       <c r="P24" t="n">
-        <v>184.4883612256069</v>
+        <v>34.72432199584805</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36674,19 +36674,19 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>218.0483875948356</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>241.188628786375</v>
+        <v>91.42458955661596</v>
       </c>
       <c r="N27" t="n">
         <v>241.188628786375</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>241.188628786375</v>
       </c>
       <c r="P27" t="n">
         <v>184.4883612256069</v>
@@ -36832,10 +36832,10 @@
         <v>47.03762496482946</v>
       </c>
       <c r="K29" t="n">
-        <v>104.0555615261842</v>
+        <v>163.0424758456262</v>
       </c>
       <c r="L29" t="n">
-        <v>240.8817138999052</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M29" t="n">
         <v>219.1673002655598</v>
@@ -36844,13 +36844,13 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O29" t="n">
-        <v>150.7019698410586</v>
+        <v>209.6888841605006</v>
       </c>
       <c r="P29" t="n">
-        <v>117.1419461975492</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q29" t="n">
-        <v>48.99621510489717</v>
+        <v>16.58553456679131</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36911,16 +36911,16 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>56.31265582131936</v>
       </c>
       <c r="L30" t="n">
-        <v>56.31265582131925</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>286.8767935431692</v>
+        <v>286.8767935431693</v>
       </c>
       <c r="N30" t="n">
-        <v>286.8767935431692</v>
+        <v>286.8767935431693</v>
       </c>
       <c r="O30" t="n">
         <v>251.2660748322851</v>
@@ -37066,28 +37066,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>47.03762496482946</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>104.0555615261842</v>
+        <v>163.0424758456262</v>
       </c>
       <c r="L32" t="n">
-        <v>181.8947995804632</v>
+        <v>196.5217440071868</v>
       </c>
       <c r="M32" t="n">
-        <v>278.1542145850017</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N32" t="n">
-        <v>207.9338608153932</v>
+        <v>266.9207751348353</v>
       </c>
       <c r="O32" t="n">
-        <v>209.6888841605006</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P32" t="n">
-        <v>107.1512469830045</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>48.99621510489717</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37148,25 +37148,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>126.6237980382196</v>
+        <v>78.61056517316858</v>
       </c>
       <c r="L33" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>286.8767935431691</v>
+        <v>286.8767935431692</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>286.8767935431692</v>
       </c>
       <c r="O33" t="n">
         <v>251.2660748322851</v>
       </c>
       <c r="P33" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>54.37519945251097</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37312,7 +37312,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M35" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N35" t="n">
         <v>207.9338608153932</v>
@@ -37385,25 +37385,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>46.78797658628819</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="O36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37622,10 +37622,10 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
-        <v>46.78797658628819</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="M39" t="n">
         <v>241.0142888776591</v>
@@ -37634,7 +37634,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>184.4883612256069</v>
@@ -37862,13 +37862,13 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>217.7067518141195</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N42" t="n">
-        <v>241.0142888776591</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -38102,16 +38102,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N45" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O45" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P45" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>70.09551364982758</v>
